--- a/bin/export/HoraireCompetition.xlsx
+++ b/bin/export/HoraireCompetition.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
   <si>
     <t>Id Epreuve</t>
   </si>
@@ -38,21 +38,6 @@
     <t xml:space="preserve"> Battement Epreuve</t>
   </si>
   <si>
-    <t>Statique</t>
-  </si>
-  <si>
-    <t>DWF</t>
-  </si>
-  <si>
-    <t>Speed 100</t>
-  </si>
-  <si>
-    <t>DNF</t>
-  </si>
-  <si>
-    <t>16*50</t>
-  </si>
-  <si>
     <t>Déroulement des EPREUVE</t>
   </si>
   <si>
@@ -66,6 +51,18 @@
   </si>
   <si>
     <t>Battement</t>
+  </si>
+  <si>
+    <t>sta</t>
+  </si>
+  <si>
+    <t>dwf</t>
+  </si>
+  <si>
+    <t>spd</t>
+  </si>
+  <si>
+    <t>dnf</t>
   </si>
 </sst>
 </file>
@@ -377,33 +374,52 @@
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="20" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="20" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -413,25 +429,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -739,7 +736,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,7 +766,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1">
         <v>0.42708333333333331</v>
@@ -781,7 +778,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -792,7 +789,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>30</v>
@@ -801,18 +798,18 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <v>9</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>30</v>
@@ -821,7 +818,7 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -832,7 +829,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>30</v>
@@ -841,18 +838,18 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F5">
         <v>9</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
+      <c r="A6">
+        <v>1650</v>
       </c>
       <c r="C6">
         <v>30</v>
@@ -861,7 +858,7 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -880,254 +877,254 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="16" t="str">
+      <c r="A1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="8" t="str">
         <f>Données!A2</f>
-        <v>Statique</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4">
+        <v>sta</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="12"/>
+      <c r="E1" s="2">
         <f>E2-TIME(0,Données!D2,0)-TIME(0,Données!C2,0)</f>
         <v>0.40416666666666667</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7">
+      <c r="A2" s="18"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="3">
         <f>Données!B2</f>
         <v>0.42708333333333331</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="8">
+      <c r="A3" s="18"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="4">
         <f>E2+TIME(0,(Données!E2*Données!F2),0)</f>
-        <v>0.44444444444444442</v>
+        <v>0.46875</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11">
+      <c r="A4" s="18"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="5">
         <f>TIME(0,Données!G2,0)</f>
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="16" t="str">
-        <f>Données!A2</f>
-        <v>Statique</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="12">
+      <c r="A5" s="18"/>
+      <c r="B5" s="8" t="str">
+        <f>Données!A3</f>
+        <v>dwf</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="6">
         <f>E6-TIME(0,Données!D3,0)-TIME(0,Données!C3,0)</f>
-        <v>0.4284722222222222</v>
+        <v>0.45277777777777778</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8">
+      <c r="A6" s="18"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="4">
         <f>E3+E4</f>
-        <v>0.45138888888888884</v>
+        <v>0.47569444444444442</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8">
+      <c r="A7" s="18"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="4">
         <f>E6+TIME(0,(Données!E3*Données!F3),0)</f>
-        <v>0.48263888888888884</v>
+        <v>0.53194444444444444</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11">
+      <c r="A8" s="18"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="5">
         <f>TIME(0,Données!G3,0)</f>
-        <v>6.9444444444444441E-3</v>
+        <v>2.7083333333333334E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="16" t="str">
-        <f>Données!A3</f>
-        <v>DWF</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4">
+      <c r="A9" s="18"/>
+      <c r="B9" s="8" t="str">
+        <f>Données!A4</f>
+        <v>spd</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="2">
         <f>E10-TIME(0,Données!D4,0)-TIME(0,Données!C4,0)</f>
-        <v>0.46666666666666662</v>
+        <v>0.53611111111111109</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="8">
+      <c r="A10" s="18"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="4">
         <f>E7+E8</f>
-        <v>0.48958333333333326</v>
+        <v>0.55902777777777779</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="8">
+      <c r="A11" s="18"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="4">
         <f>E10+TIME(0,(Données!E4*Données!F4),0)</f>
-        <v>0.50694444444444442</v>
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11">
+      <c r="A12" s="18"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="5">
         <f>TIME(0,Données!G4,0)</f>
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="16" t="str">
-        <f>Données!A4</f>
-        <v>Speed 100</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="12">
+      <c r="A13" s="18"/>
+      <c r="B13" s="8" t="str">
+        <f>Données!A5</f>
+        <v>dnf</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="6">
         <f>E14-TIME(0,Données!D5,0)-TIME(0,Données!C5,0)</f>
-        <v>0.4909722222222222</v>
+        <v>0.56736111111111109</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="8">
+      <c r="A14" s="18"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="4">
         <f>E11+E12</f>
-        <v>0.51388888888888884</v>
+        <v>0.59027777777777779</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="8">
+      <c r="A15" s="18"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="4">
         <f>E14+TIME(0,(Données!E5*Données!F5),0)</f>
-        <v>0.54513888888888884</v>
+        <v>0.64652777777777781</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11">
+      <c r="A16" s="18"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="5">
         <f>TIME(0,Données!G5,0)</f>
-        <v>6.9444444444444441E-3</v>
+        <v>6.2499999999999995E-3</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="13" t="str">
-        <f>Données!A5</f>
-        <v>DNF</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="12">
+      <c r="A17" s="18"/>
+      <c r="B17" s="20">
+        <f>Données!A6</f>
+        <v>1650</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="6">
         <f>E18-TIME(0,Données!D6,0)-TIME(0,Données!C6,0)</f>
-        <v>0.52916666666666656</v>
+        <v>0.62986111111111109</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="8">
+      <c r="A18" s="18"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="4">
         <f>E15+E16</f>
-        <v>0.55208333333333326</v>
+        <v>0.65277777777777779</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="22">
+      <c r="A19" s="19"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="7">
         <f>E18+TIME(0,(Données!E6*Données!F6),0)</f>
-        <v>0.5659722222222221</v>
+        <v>0.71666666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -1148,15 +1145,15 @@
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/bin/export/HoraireCompetition.xlsx
+++ b/bin/export/HoraireCompetition.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Données" sheetId="1" r:id="rId1"/>
@@ -384,6 +384,15 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -410,15 +419,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -733,13 +733,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -874,254 +879,255 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8" t="str">
+      <c r="B1" s="11" t="str">
         <f>Données!A2</f>
         <v>sta</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="12"/>
+      <c r="D1" s="15"/>
       <c r="E1" s="2">
         <f>E2-TIME(0,Données!D2,0)-TIME(0,Données!C2,0)</f>
         <v>0.40416666666666667</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="13" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="14"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="3">
         <f>Données!B2</f>
         <v>0.42708333333333331</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="13" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="14"/>
+      <c r="D3" s="17"/>
       <c r="E3" s="4">
         <f>E2+TIME(0,(Données!E2*Données!F2),0)</f>
         <v>0.46875</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="15" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="5">
         <f>TIME(0,Données!G2,0)</f>
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="8" t="str">
+      <c r="A5" s="9"/>
+      <c r="B5" s="11" t="str">
         <f>Données!A3</f>
         <v>dwf</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="15"/>
       <c r="E5" s="6">
         <f>E6-TIME(0,Données!D3,0)-TIME(0,Données!C3,0)</f>
         <v>0.45277777777777778</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="13" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="4">
         <f>E3+E4</f>
         <v>0.47569444444444442</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="13" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="14"/>
+      <c r="D7" s="17"/>
       <c r="E7" s="4">
         <f>E6+TIME(0,(Données!E3*Données!F3),0)</f>
         <v>0.53194444444444444</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="15" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="16"/>
+      <c r="D8" s="19"/>
       <c r="E8" s="5">
         <f>TIME(0,Données!G3,0)</f>
         <v>2.7083333333333334E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="8" t="str">
+      <c r="A9" s="9"/>
+      <c r="B9" s="11" t="str">
         <f>Données!A4</f>
         <v>spd</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="2">
         <f>E10-TIME(0,Données!D4,0)-TIME(0,Données!C4,0)</f>
         <v>0.53611111111111109</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="13" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="14"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="4">
         <f>E7+E8</f>
         <v>0.55902777777777779</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="13" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="14"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="4">
         <f>E10+TIME(0,(Données!E4*Données!F4),0)</f>
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="15" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="16"/>
+      <c r="D12" s="19"/>
       <c r="E12" s="5">
         <f>TIME(0,Données!G4,0)</f>
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="8" t="str">
+      <c r="A13" s="9"/>
+      <c r="B13" s="11" t="str">
         <f>Données!A5</f>
         <v>dnf</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="12"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="6">
         <f>E14-TIME(0,Données!D5,0)-TIME(0,Données!C5,0)</f>
         <v>0.56736111111111109</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="13" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="14"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="4">
         <f>E11+E12</f>
         <v>0.59027777777777779</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="13" t="s">
+      <c r="A15" s="9"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="14"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="4">
         <f>E14+TIME(0,(Données!E5*Données!F5),0)</f>
         <v>0.64652777777777781</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="15" t="s">
+      <c r="A16" s="9"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="16"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="5">
         <f>TIME(0,Données!G5,0)</f>
         <v>6.2499999999999995E-3</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="20">
         <f>Données!A6</f>
         <v>1650</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="12"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="6">
         <f>E18-TIME(0,Données!D6,0)-TIME(0,Données!C6,0)</f>
         <v>0.62986111111111109</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="21"/>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="14"/>
+      <c r="D18" s="17"/>
       <c r="E18" s="4">
         <f>E15+E16</f>
         <v>0.65277777777777779</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="22"/>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="16"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="7">
         <f>E18+TIME(0,(Données!E6*Données!F6),0)</f>
         <v>0.71666666666666667</v>
@@ -1129,6 +1135,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="A1:A19"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C13:D13"/>
@@ -1145,15 +1160,6 @@
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/bin/export/HoraireCompetition.xlsx
+++ b/bin/export/HoraireCompetition.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Données" sheetId="1" r:id="rId1"/>
@@ -384,6 +384,33 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -392,33 +419,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -736,8 +736,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,7 +809,7 @@
         <v>9</v>
       </c>
       <c r="G3">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -849,7 +849,7 @@
         <v>9</v>
       </c>
       <c r="G5">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -880,286 +880,287 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="11" t="str">
+      <c r="B2" s="8" t="str">
         <f>Données!A2</f>
         <v>sta</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="2">
-        <f>E2-TIME(0,Données!D2,0)-TIME(0,Données!C2,0)</f>
+      <c r="D2" s="12"/>
+      <c r="E2" s="2">
+        <f>E3-TIME(0,Données!D2,0)-TIME(0,Données!C2,0)</f>
         <v>0.40416666666666667</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="16" t="s">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="3">
+      <c r="D3" s="14"/>
+      <c r="E3" s="3">
         <f>Données!B2</f>
         <v>0.42708333333333331</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="16" t="s">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="4">
-        <f>E2+TIME(0,(Données!E2*Données!F2),0)</f>
+      <c r="D4" s="14"/>
+      <c r="E4" s="4">
+        <f>E3+TIME(0,(Données!E2*Données!F2),0)</f>
         <v>0.46875</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="18" t="s">
+    <row r="5" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="5">
+      <c r="D5" s="16"/>
+      <c r="E5" s="5">
         <f>TIME(0,Données!G2,0)</f>
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="11" t="str">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="B6" s="8" t="str">
         <f>Données!A3</f>
         <v>dwf</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="6">
-        <f>E6-TIME(0,Données!D3,0)-TIME(0,Données!C3,0)</f>
+      <c r="D6" s="12"/>
+      <c r="E6" s="6">
+        <f>E7-TIME(0,Données!D3,0)-TIME(0,Données!C3,0)</f>
         <v>0.45277777777777778</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="16" t="s">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="4">
-        <f>E3+E4</f>
+      <c r="D7" s="14"/>
+      <c r="E7" s="4">
+        <f>E4+E5</f>
         <v>0.47569444444444442</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="16" t="s">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="4">
-        <f>E6+TIME(0,(Données!E3*Données!F3),0)</f>
+      <c r="D8" s="14"/>
+      <c r="E8" s="4">
+        <f>E7+TIME(0,(Données!E3*Données!F3),0)</f>
         <v>0.53194444444444444</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="18" t="s">
+    <row r="9" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="5">
+      <c r="D9" s="16"/>
+      <c r="E9" s="5">
         <f>TIME(0,Données!G3,0)</f>
-        <v>2.7083333333333334E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="11" t="str">
+        <v>6.9444444444444441E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="8" t="str">
         <f>Données!A4</f>
         <v>spd</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="2">
-        <f>E10-TIME(0,Données!D4,0)-TIME(0,Données!C4,0)</f>
-        <v>0.53611111111111109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="16" t="s">
+      <c r="D10" s="12"/>
+      <c r="E10" s="2">
+        <f>E11-TIME(0,Données!D4,0)-TIME(0,Données!C4,0)</f>
+        <v>0.51597222222222217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="4">
-        <f>E7+E8</f>
-        <v>0.55902777777777779</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="16" t="s">
+      <c r="D11" s="14"/>
+      <c r="E11" s="4">
+        <f>E8+E9</f>
+        <v>0.53888888888888886</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="4">
-        <f>E10+TIME(0,(Données!E4*Données!F4),0)</f>
-        <v>0.58333333333333337</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="18" t="s">
+      <c r="D12" s="14"/>
+      <c r="E12" s="4">
+        <f>E11+TIME(0,(Données!E4*Données!F4),0)</f>
+        <v>0.56319444444444444</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="5">
+      <c r="D13" s="16"/>
+      <c r="E13" s="5">
         <f>TIME(0,Données!G4,0)</f>
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="11" t="str">
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="8" t="str">
         <f>Données!A5</f>
         <v>dnf</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C14" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="6">
-        <f>E14-TIME(0,Données!D5,0)-TIME(0,Données!C5,0)</f>
-        <v>0.56736111111111109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="16" t="s">
+      <c r="D14" s="12"/>
+      <c r="E14" s="6">
+        <f>E15-TIME(0,Données!D5,0)-TIME(0,Données!C5,0)</f>
+        <v>0.54722222222222217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="4">
-        <f>E11+E12</f>
-        <v>0.59027777777777779</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="16" t="s">
+      <c r="D15" s="14"/>
+      <c r="E15" s="4">
+        <f>E12+E13</f>
+        <v>0.57013888888888886</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="4">
-        <f>E14+TIME(0,(Données!E5*Données!F5),0)</f>
-        <v>0.64652777777777781</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="18" t="s">
+      <c r="D16" s="14"/>
+      <c r="E16" s="4">
+        <f>E15+TIME(0,(Données!E5*Données!F5),0)</f>
+        <v>0.62638888888888888</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="18"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="5">
+      <c r="D17" s="16"/>
+      <c r="E17" s="5">
         <f>TIME(0,Données!G5,0)</f>
-        <v>6.2499999999999995E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="20">
+        <v>6.9444444444444441E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="20">
         <f>Données!A6</f>
         <v>1650</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C18" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="6">
-        <f>E18-TIME(0,Données!D6,0)-TIME(0,Données!C6,0)</f>
-        <v>0.62986111111111109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="16" t="s">
+      <c r="D18" s="12"/>
+      <c r="E18" s="6">
+        <f>E19-TIME(0,Données!D6,0)-TIME(0,Données!C6,0)</f>
+        <v>0.61041666666666661</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="4">
-        <f>E15+E16</f>
-        <v>0.65277777777777779</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="18" t="s">
+      <c r="D19" s="14"/>
+      <c r="E19" s="4">
+        <f>E16+E17</f>
+        <v>0.6333333333333333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="19"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="7">
-        <f>E18+TIME(0,(Données!E6*Données!F6),0)</f>
-        <v>0.71666666666666667</v>
+      <c r="D20" s="16"/>
+      <c r="E20" s="7">
+        <f>E19+TIME(0,(Données!E6*Données!F6),0)</f>
+        <v>0.69722222222222219</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A1:A19"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A2:A20"/>
+    <mergeCell ref="B14:B17"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="B18:B20"/>
     <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B10:B13"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/bin/export/HoraireCompetition.xlsx
+++ b/bin/export/HoraireCompetition.xlsx
@@ -4,39 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Données" sheetId="1" r:id="rId1"/>
     <sheet name="Visuel_Planning" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
-  <si>
-    <t>Id Epreuve</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HeureOuverture(1ereEpreuve)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Echauffement</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Annonce</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Temps/Series</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nbSeries</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Battement Epreuve</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="5">
   <si>
     <t>Déroulement des EPREUVE</t>
   </si>
@@ -51,18 +33,6 @@
   </si>
   <si>
     <t>Battement</t>
-  </si>
-  <si>
-    <t>sta</t>
-  </si>
-  <si>
-    <t>dwf</t>
-  </si>
-  <si>
-    <t>spd</t>
-  </si>
-  <si>
-    <t>dnf</t>
   </si>
 </sst>
 </file>
@@ -371,9 +341,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="20" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -384,6 +353,15 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -411,15 +389,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -433,7 +402,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -444,6 +424,146 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="PlanningCompetition"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Id Epreuve</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v xml:space="preserve"> HeureOuverture(1ereEpreuve)</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v xml:space="preserve"> Echauffement</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v xml:space="preserve"> Annonce</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v xml:space="preserve"> Temps/Series</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v xml:space="preserve"> nbSeries</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v xml:space="preserve"> Battement Epreuve</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>sta</v>
+          </cell>
+          <cell r="B2">
+            <v>0.42708333333333331</v>
+          </cell>
+          <cell r="C2">
+            <v>30</v>
+          </cell>
+          <cell r="D2">
+            <v>3</v>
+          </cell>
+          <cell r="E2">
+            <v>12</v>
+          </cell>
+          <cell r="F2">
+            <v>6</v>
+          </cell>
+          <cell r="G2">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>dwf</v>
+          </cell>
+          <cell r="C3">
+            <v>30</v>
+          </cell>
+          <cell r="D3">
+            <v>3</v>
+          </cell>
+          <cell r="E3">
+            <v>9</v>
+          </cell>
+          <cell r="F3">
+            <v>9</v>
+          </cell>
+          <cell r="G3">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>spd</v>
+          </cell>
+          <cell r="C4">
+            <v>30</v>
+          </cell>
+          <cell r="D4">
+            <v>3</v>
+          </cell>
+          <cell r="E4">
+            <v>7</v>
+          </cell>
+          <cell r="F4">
+            <v>6</v>
+          </cell>
+          <cell r="G4">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>dnf</v>
+          </cell>
+          <cell r="C5">
+            <v>30</v>
+          </cell>
+          <cell r="D5">
+            <v>3</v>
+          </cell>
+          <cell r="E5">
+            <v>9</v>
+          </cell>
+          <cell r="F5">
+            <v>9</v>
+          </cell>
+          <cell r="G5">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>1650</v>
+          </cell>
+          <cell r="C6">
+            <v>30</v>
+          </cell>
+          <cell r="D6">
+            <v>3</v>
+          </cell>
+          <cell r="E6">
+            <v>23</v>
+          </cell>
+          <cell r="F6">
+            <v>4</v>
+          </cell>
+          <cell r="G6">
+            <v>10</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -734,10 +854,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,134 +866,3934 @@
     <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" t="str">
+        <f>[1]PlanningCompetition!A1</f>
+        <v>Id Epreuve</v>
+      </c>
+      <c r="B1" t="str">
+        <f>[1]PlanningCompetition!B1</f>
+        <v xml:space="preserve"> HeureOuverture(1ereEpreuve)</v>
+      </c>
+      <c r="C1" t="str">
+        <f>[1]PlanningCompetition!C1</f>
+        <v xml:space="preserve"> Echauffement</v>
+      </c>
+      <c r="D1" t="str">
+        <f>[1]PlanningCompetition!D1</f>
+        <v xml:space="preserve"> Annonce</v>
+      </c>
+      <c r="E1" t="str">
+        <f>[1]PlanningCompetition!E1</f>
+        <v xml:space="preserve"> Temps/Series</v>
+      </c>
+      <c r="F1" t="str">
+        <f>[1]PlanningCompetition!F1</f>
+        <v xml:space="preserve"> nbSeries</v>
+      </c>
+      <c r="G1" t="str">
+        <f>[1]PlanningCompetition!G1</f>
+        <v xml:space="preserve"> Battement Epreuve</v>
+      </c>
+      <c r="H1">
+        <f>[1]PlanningCompetition!H1</f>
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <f>[1]PlanningCompetition!I1</f>
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <f>[1]PlanningCompetition!J1</f>
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <f>[1]PlanningCompetition!K1</f>
+        <v>0</v>
+      </c>
+      <c r="L1">
+        <f>[1]PlanningCompetition!L1</f>
+        <v>0</v>
+      </c>
+      <c r="M1">
+        <f>[1]PlanningCompetition!M1</f>
+        <v>0</v>
+      </c>
+      <c r="N1">
+        <f>[1]PlanningCompetition!N1</f>
+        <v>0</v>
+      </c>
+      <c r="O1">
+        <f>[1]PlanningCompetition!O1</f>
+        <v>0</v>
+      </c>
+      <c r="P1">
+        <f>[1]PlanningCompetition!P1</f>
+        <v>0</v>
+      </c>
+      <c r="Q1">
+        <f>[1]PlanningCompetition!Q1</f>
+        <v>0</v>
+      </c>
+      <c r="R1">
+        <f>[1]PlanningCompetition!R1</f>
+        <v>0</v>
+      </c>
+      <c r="S1">
+        <f>[1]PlanningCompetition!S1</f>
+        <v>0</v>
+      </c>
+      <c r="T1">
+        <f>[1]PlanningCompetition!T1</f>
+        <v>0</v>
+      </c>
+      <c r="U1">
+        <f>[1]PlanningCompetition!U1</f>
+        <v>0</v>
+      </c>
+      <c r="V1">
+        <f>[1]PlanningCompetition!V1</f>
+        <v>0</v>
+      </c>
+      <c r="W1">
+        <f>[1]PlanningCompetition!W1</f>
+        <v>0</v>
+      </c>
+      <c r="X1">
+        <f>[1]PlanningCompetition!X1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>[1]PlanningCompetition!A2</f>
+        <v>sta</v>
+      </c>
+      <c r="B2">
+        <f>[1]PlanningCompetition!B2</f>
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="C2">
+        <f>[1]PlanningCompetition!C2</f>
+        <v>30</v>
+      </c>
+      <c r="D2">
+        <f>[1]PlanningCompetition!D2</f>
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2">
+        <f>[1]PlanningCompetition!E2</f>
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <f>[1]PlanningCompetition!F2</f>
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <f>[1]PlanningCompetition!G2</f>
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <f>[1]PlanningCompetition!H2</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>[1]PlanningCompetition!I2</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>[1]PlanningCompetition!J2</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>[1]PlanningCompetition!K2</f>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>[1]PlanningCompetition!L2</f>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>[1]PlanningCompetition!M2</f>
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f>[1]PlanningCompetition!N2</f>
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <f>[1]PlanningCompetition!O2</f>
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <f>[1]PlanningCompetition!P2</f>
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <f>[1]PlanningCompetition!Q2</f>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <f>[1]PlanningCompetition!R2</f>
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <f>[1]PlanningCompetition!S2</f>
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <f>[1]PlanningCompetition!T2</f>
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <f>[1]PlanningCompetition!U2</f>
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <f>[1]PlanningCompetition!V2</f>
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <f>[1]PlanningCompetition!W2</f>
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <f>[1]PlanningCompetition!X2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>[1]PlanningCompetition!A3</f>
+        <v>dwf</v>
+      </c>
+      <c r="B3">
+        <f>[1]PlanningCompetition!B3</f>
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>[1]PlanningCompetition!C3</f>
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <f>[1]PlanningCompetition!D3</f>
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <f>[1]PlanningCompetition!E3</f>
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <f>[1]PlanningCompetition!F3</f>
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <f>[1]PlanningCompetition!G3</f>
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <f>[1]PlanningCompetition!H3</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>[1]PlanningCompetition!I3</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f>[1]PlanningCompetition!J3</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f>[1]PlanningCompetition!K3</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f>[1]PlanningCompetition!L3</f>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f>[1]PlanningCompetition!M3</f>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f>[1]PlanningCompetition!N3</f>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f>[1]PlanningCompetition!O3</f>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f>[1]PlanningCompetition!P3</f>
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f>[1]PlanningCompetition!Q3</f>
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <f>[1]PlanningCompetition!R3</f>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f>[1]PlanningCompetition!S3</f>
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <f>[1]PlanningCompetition!T3</f>
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <f>[1]PlanningCompetition!U3</f>
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <f>[1]PlanningCompetition!V3</f>
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f>[1]PlanningCompetition!W3</f>
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <f>[1]PlanningCompetition!X3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>[1]PlanningCompetition!A4</f>
+        <v>spd</v>
+      </c>
+      <c r="B4">
+        <f>[1]PlanningCompetition!B4</f>
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <f>[1]PlanningCompetition!C4</f>
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <f>[1]PlanningCompetition!D4</f>
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <f>[1]PlanningCompetition!E4</f>
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <f>[1]PlanningCompetition!F4</f>
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <f>[1]PlanningCompetition!G4</f>
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <f>[1]PlanningCompetition!H4</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f>[1]PlanningCompetition!I4</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f>[1]PlanningCompetition!J4</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f>[1]PlanningCompetition!K4</f>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f>[1]PlanningCompetition!L4</f>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f>[1]PlanningCompetition!M4</f>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f>[1]PlanningCompetition!N4</f>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f>[1]PlanningCompetition!O4</f>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f>[1]PlanningCompetition!P4</f>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f>[1]PlanningCompetition!Q4</f>
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <f>[1]PlanningCompetition!R4</f>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f>[1]PlanningCompetition!S4</f>
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <f>[1]PlanningCompetition!T4</f>
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <f>[1]PlanningCompetition!U4</f>
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <f>[1]PlanningCompetition!V4</f>
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <f>[1]PlanningCompetition!W4</f>
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <f>[1]PlanningCompetition!X4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>[1]PlanningCompetition!A5</f>
+        <v>dnf</v>
+      </c>
+      <c r="B5">
+        <f>[1]PlanningCompetition!B5</f>
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <f>[1]PlanningCompetition!C5</f>
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <f>[1]PlanningCompetition!D5</f>
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <f>[1]PlanningCompetition!E5</f>
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <f>[1]PlanningCompetition!F5</f>
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <f>[1]PlanningCompetition!G5</f>
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <f>[1]PlanningCompetition!H5</f>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f>[1]PlanningCompetition!I5</f>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f>[1]PlanningCompetition!J5</f>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f>[1]PlanningCompetition!K5</f>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f>[1]PlanningCompetition!L5</f>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f>[1]PlanningCompetition!M5</f>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f>[1]PlanningCompetition!N5</f>
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f>[1]PlanningCompetition!O5</f>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f>[1]PlanningCompetition!P5</f>
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <f>[1]PlanningCompetition!Q5</f>
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <f>[1]PlanningCompetition!R5</f>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <f>[1]PlanningCompetition!S5</f>
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <f>[1]PlanningCompetition!T5</f>
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <f>[1]PlanningCompetition!U5</f>
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <f>[1]PlanningCompetition!V5</f>
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <f>[1]PlanningCompetition!W5</f>
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <f>[1]PlanningCompetition!X5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>[1]PlanningCompetition!A6</f>
+        <v>1650</v>
+      </c>
+      <c r="B6">
+        <f>[1]PlanningCompetition!B6</f>
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <f>[1]PlanningCompetition!C6</f>
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <f>[1]PlanningCompetition!D6</f>
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <f>[1]PlanningCompetition!E6</f>
+        <v>23</v>
+      </c>
+      <c r="F6">
+        <f>[1]PlanningCompetition!F6</f>
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="C2">
-        <v>30</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>12</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2">
+      <c r="G6">
+        <f>[1]PlanningCompetition!G6</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <v>30</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>9</v>
-      </c>
-      <c r="F3">
-        <v>9</v>
-      </c>
-      <c r="G3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4">
-        <v>30</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>7</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5">
-        <v>30</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>9</v>
-      </c>
-      <c r="F5">
-        <v>9</v>
-      </c>
-      <c r="G5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1650</v>
-      </c>
-      <c r="C6">
-        <v>30</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>23</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <v>10</v>
+      <c r="H6">
+        <f>[1]PlanningCompetition!H6</f>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f>[1]PlanningCompetition!I6</f>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f>[1]PlanningCompetition!J6</f>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f>[1]PlanningCompetition!K6</f>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f>[1]PlanningCompetition!L6</f>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f>[1]PlanningCompetition!M6</f>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f>[1]PlanningCompetition!N6</f>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f>[1]PlanningCompetition!O6</f>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f>[1]PlanningCompetition!P6</f>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f>[1]PlanningCompetition!Q6</f>
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f>[1]PlanningCompetition!R6</f>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f>[1]PlanningCompetition!S6</f>
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <f>[1]PlanningCompetition!T6</f>
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <f>[1]PlanningCompetition!U6</f>
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <f>[1]PlanningCompetition!V6</f>
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <f>[1]PlanningCompetition!W6</f>
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <f>[1]PlanningCompetition!X6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>[1]PlanningCompetition!A7</f>
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <f>[1]PlanningCompetition!B7</f>
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <f>[1]PlanningCompetition!C7</f>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f>[1]PlanningCompetition!D7</f>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f>[1]PlanningCompetition!E7</f>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>[1]PlanningCompetition!F7</f>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f>[1]PlanningCompetition!G7</f>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f>[1]PlanningCompetition!H7</f>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f>[1]PlanningCompetition!I7</f>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f>[1]PlanningCompetition!J7</f>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f>[1]PlanningCompetition!K7</f>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f>[1]PlanningCompetition!L7</f>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f>[1]PlanningCompetition!M7</f>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f>[1]PlanningCompetition!N7</f>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f>[1]PlanningCompetition!O7</f>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f>[1]PlanningCompetition!P7</f>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f>[1]PlanningCompetition!Q7</f>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f>[1]PlanningCompetition!R7</f>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f>[1]PlanningCompetition!S7</f>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f>[1]PlanningCompetition!T7</f>
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <f>[1]PlanningCompetition!U7</f>
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <f>[1]PlanningCompetition!V7</f>
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <f>[1]PlanningCompetition!W7</f>
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <f>[1]PlanningCompetition!X7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>[1]PlanningCompetition!A8</f>
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <f>[1]PlanningCompetition!B8</f>
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <f>[1]PlanningCompetition!C8</f>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f>[1]PlanningCompetition!D8</f>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f>[1]PlanningCompetition!E8</f>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f>[1]PlanningCompetition!F8</f>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f>[1]PlanningCompetition!G8</f>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f>[1]PlanningCompetition!H8</f>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f>[1]PlanningCompetition!I8</f>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f>[1]PlanningCompetition!J8</f>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f>[1]PlanningCompetition!K8</f>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f>[1]PlanningCompetition!L8</f>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f>[1]PlanningCompetition!M8</f>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f>[1]PlanningCompetition!N8</f>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f>[1]PlanningCompetition!O8</f>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f>[1]PlanningCompetition!P8</f>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f>[1]PlanningCompetition!Q8</f>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f>[1]PlanningCompetition!R8</f>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f>[1]PlanningCompetition!S8</f>
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f>[1]PlanningCompetition!T8</f>
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <f>[1]PlanningCompetition!U8</f>
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <f>[1]PlanningCompetition!V8</f>
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <f>[1]PlanningCompetition!W8</f>
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <f>[1]PlanningCompetition!X8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>[1]PlanningCompetition!A9</f>
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <f>[1]PlanningCompetition!B9</f>
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <f>[1]PlanningCompetition!C9</f>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f>[1]PlanningCompetition!D9</f>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f>[1]PlanningCompetition!E9</f>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f>[1]PlanningCompetition!F9</f>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f>[1]PlanningCompetition!G9</f>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f>[1]PlanningCompetition!H9</f>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f>[1]PlanningCompetition!I9</f>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f>[1]PlanningCompetition!J9</f>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f>[1]PlanningCompetition!K9</f>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f>[1]PlanningCompetition!L9</f>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f>[1]PlanningCompetition!M9</f>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f>[1]PlanningCompetition!N9</f>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f>[1]PlanningCompetition!O9</f>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f>[1]PlanningCompetition!P9</f>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f>[1]PlanningCompetition!Q9</f>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f>[1]PlanningCompetition!R9</f>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f>[1]PlanningCompetition!S9</f>
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <f>[1]PlanningCompetition!T9</f>
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <f>[1]PlanningCompetition!U9</f>
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <f>[1]PlanningCompetition!V9</f>
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <f>[1]PlanningCompetition!W9</f>
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <f>[1]PlanningCompetition!X9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>[1]PlanningCompetition!A10</f>
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <f>[1]PlanningCompetition!B10</f>
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <f>[1]PlanningCompetition!C10</f>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f>[1]PlanningCompetition!D10</f>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f>[1]PlanningCompetition!E10</f>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f>[1]PlanningCompetition!F10</f>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f>[1]PlanningCompetition!G10</f>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f>[1]PlanningCompetition!H10</f>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f>[1]PlanningCompetition!I10</f>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f>[1]PlanningCompetition!J10</f>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f>[1]PlanningCompetition!K10</f>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f>[1]PlanningCompetition!L10</f>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f>[1]PlanningCompetition!M10</f>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f>[1]PlanningCompetition!N10</f>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f>[1]PlanningCompetition!O10</f>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f>[1]PlanningCompetition!P10</f>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f>[1]PlanningCompetition!Q10</f>
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <f>[1]PlanningCompetition!R10</f>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f>[1]PlanningCompetition!S10</f>
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <f>[1]PlanningCompetition!T10</f>
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f>[1]PlanningCompetition!U10</f>
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <f>[1]PlanningCompetition!V10</f>
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <f>[1]PlanningCompetition!W10</f>
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <f>[1]PlanningCompetition!X10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>[1]PlanningCompetition!A11</f>
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <f>[1]PlanningCompetition!B11</f>
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <f>[1]PlanningCompetition!C11</f>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f>[1]PlanningCompetition!D11</f>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f>[1]PlanningCompetition!E11</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f>[1]PlanningCompetition!F11</f>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f>[1]PlanningCompetition!G11</f>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f>[1]PlanningCompetition!H11</f>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f>[1]PlanningCompetition!I11</f>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f>[1]PlanningCompetition!J11</f>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f>[1]PlanningCompetition!K11</f>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f>[1]PlanningCompetition!L11</f>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f>[1]PlanningCompetition!M11</f>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f>[1]PlanningCompetition!N11</f>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f>[1]PlanningCompetition!O11</f>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f>[1]PlanningCompetition!P11</f>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f>[1]PlanningCompetition!Q11</f>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f>[1]PlanningCompetition!R11</f>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f>[1]PlanningCompetition!S11</f>
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f>[1]PlanningCompetition!T11</f>
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f>[1]PlanningCompetition!U11</f>
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <f>[1]PlanningCompetition!V11</f>
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <f>[1]PlanningCompetition!W11</f>
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <f>[1]PlanningCompetition!X11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>[1]PlanningCompetition!A12</f>
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <f>[1]PlanningCompetition!B12</f>
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <f>[1]PlanningCompetition!C12</f>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f>[1]PlanningCompetition!D12</f>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f>[1]PlanningCompetition!E12</f>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f>[1]PlanningCompetition!F12</f>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f>[1]PlanningCompetition!G12</f>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f>[1]PlanningCompetition!H12</f>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f>[1]PlanningCompetition!I12</f>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f>[1]PlanningCompetition!J12</f>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f>[1]PlanningCompetition!K12</f>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f>[1]PlanningCompetition!L12</f>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f>[1]PlanningCompetition!M12</f>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f>[1]PlanningCompetition!N12</f>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f>[1]PlanningCompetition!O12</f>
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f>[1]PlanningCompetition!P12</f>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f>[1]PlanningCompetition!Q12</f>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f>[1]PlanningCompetition!R12</f>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f>[1]PlanningCompetition!S12</f>
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <f>[1]PlanningCompetition!T12</f>
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <f>[1]PlanningCompetition!U12</f>
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <f>[1]PlanningCompetition!V12</f>
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <f>[1]PlanningCompetition!W12</f>
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <f>[1]PlanningCompetition!X12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>[1]PlanningCompetition!A13</f>
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <f>[1]PlanningCompetition!B13</f>
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <f>[1]PlanningCompetition!C13</f>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f>[1]PlanningCompetition!D13</f>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f>[1]PlanningCompetition!E13</f>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f>[1]PlanningCompetition!F13</f>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f>[1]PlanningCompetition!G13</f>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f>[1]PlanningCompetition!H13</f>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f>[1]PlanningCompetition!I13</f>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f>[1]PlanningCompetition!J13</f>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f>[1]PlanningCompetition!K13</f>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f>[1]PlanningCompetition!L13</f>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f>[1]PlanningCompetition!M13</f>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f>[1]PlanningCompetition!N13</f>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f>[1]PlanningCompetition!O13</f>
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f>[1]PlanningCompetition!P13</f>
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f>[1]PlanningCompetition!Q13</f>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f>[1]PlanningCompetition!R13</f>
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <f>[1]PlanningCompetition!S13</f>
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f>[1]PlanningCompetition!T13</f>
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <f>[1]PlanningCompetition!U13</f>
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <f>[1]PlanningCompetition!V13</f>
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <f>[1]PlanningCompetition!W13</f>
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <f>[1]PlanningCompetition!X13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>[1]PlanningCompetition!A14</f>
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <f>[1]PlanningCompetition!B14</f>
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <f>[1]PlanningCompetition!C14</f>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f>[1]PlanningCompetition!D14</f>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f>[1]PlanningCompetition!E14</f>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f>[1]PlanningCompetition!F14</f>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f>[1]PlanningCompetition!G14</f>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f>[1]PlanningCompetition!H14</f>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f>[1]PlanningCompetition!I14</f>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f>[1]PlanningCompetition!J14</f>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f>[1]PlanningCompetition!K14</f>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f>[1]PlanningCompetition!L14</f>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f>[1]PlanningCompetition!M14</f>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f>[1]PlanningCompetition!N14</f>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f>[1]PlanningCompetition!O14</f>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f>[1]PlanningCompetition!P14</f>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f>[1]PlanningCompetition!Q14</f>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f>[1]PlanningCompetition!R14</f>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <f>[1]PlanningCompetition!S14</f>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f>[1]PlanningCompetition!T14</f>
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <f>[1]PlanningCompetition!U14</f>
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <f>[1]PlanningCompetition!V14</f>
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <f>[1]PlanningCompetition!W14</f>
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <f>[1]PlanningCompetition!X14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>[1]PlanningCompetition!A15</f>
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <f>[1]PlanningCompetition!B15</f>
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <f>[1]PlanningCompetition!C15</f>
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f>[1]PlanningCompetition!D15</f>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f>[1]PlanningCompetition!E15</f>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f>[1]PlanningCompetition!F15</f>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f>[1]PlanningCompetition!G15</f>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f>[1]PlanningCompetition!H15</f>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f>[1]PlanningCompetition!I15</f>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f>[1]PlanningCompetition!J15</f>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f>[1]PlanningCompetition!K15</f>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f>[1]PlanningCompetition!L15</f>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f>[1]PlanningCompetition!M15</f>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f>[1]PlanningCompetition!N15</f>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f>[1]PlanningCompetition!O15</f>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f>[1]PlanningCompetition!P15</f>
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f>[1]PlanningCompetition!Q15</f>
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <f>[1]PlanningCompetition!R15</f>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <f>[1]PlanningCompetition!S15</f>
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f>[1]PlanningCompetition!T15</f>
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f>[1]PlanningCompetition!U15</f>
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <f>[1]PlanningCompetition!V15</f>
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <f>[1]PlanningCompetition!W15</f>
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <f>[1]PlanningCompetition!X15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>[1]PlanningCompetition!A16</f>
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <f>[1]PlanningCompetition!B16</f>
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <f>[1]PlanningCompetition!C16</f>
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <f>[1]PlanningCompetition!D16</f>
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f>[1]PlanningCompetition!E16</f>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f>[1]PlanningCompetition!F16</f>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f>[1]PlanningCompetition!G16</f>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f>[1]PlanningCompetition!H16</f>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f>[1]PlanningCompetition!I16</f>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f>[1]PlanningCompetition!J16</f>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f>[1]PlanningCompetition!K16</f>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f>[1]PlanningCompetition!L16</f>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f>[1]PlanningCompetition!M16</f>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f>[1]PlanningCompetition!N16</f>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f>[1]PlanningCompetition!O16</f>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f>[1]PlanningCompetition!P16</f>
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <f>[1]PlanningCompetition!Q16</f>
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <f>[1]PlanningCompetition!R16</f>
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <f>[1]PlanningCompetition!S16</f>
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <f>[1]PlanningCompetition!T16</f>
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <f>[1]PlanningCompetition!U16</f>
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <f>[1]PlanningCompetition!V16</f>
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <f>[1]PlanningCompetition!W16</f>
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <f>[1]PlanningCompetition!X16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f>[1]PlanningCompetition!A17</f>
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <f>[1]PlanningCompetition!B17</f>
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <f>[1]PlanningCompetition!C17</f>
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <f>[1]PlanningCompetition!D17</f>
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <f>[1]PlanningCompetition!E17</f>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f>[1]PlanningCompetition!F17</f>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f>[1]PlanningCompetition!G17</f>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f>[1]PlanningCompetition!H17</f>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f>[1]PlanningCompetition!I17</f>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f>[1]PlanningCompetition!J17</f>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f>[1]PlanningCompetition!K17</f>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f>[1]PlanningCompetition!L17</f>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f>[1]PlanningCompetition!M17</f>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f>[1]PlanningCompetition!N17</f>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f>[1]PlanningCompetition!O17</f>
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <f>[1]PlanningCompetition!P17</f>
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <f>[1]PlanningCompetition!Q17</f>
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <f>[1]PlanningCompetition!R17</f>
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <f>[1]PlanningCompetition!S17</f>
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <f>[1]PlanningCompetition!T17</f>
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <f>[1]PlanningCompetition!U17</f>
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <f>[1]PlanningCompetition!V17</f>
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <f>[1]PlanningCompetition!W17</f>
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <f>[1]PlanningCompetition!X17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f>[1]PlanningCompetition!A18</f>
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <f>[1]PlanningCompetition!B18</f>
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <f>[1]PlanningCompetition!C18</f>
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <f>[1]PlanningCompetition!D18</f>
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f>[1]PlanningCompetition!E18</f>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f>[1]PlanningCompetition!F18</f>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f>[1]PlanningCompetition!G18</f>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f>[1]PlanningCompetition!H18</f>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f>[1]PlanningCompetition!I18</f>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f>[1]PlanningCompetition!J18</f>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f>[1]PlanningCompetition!K18</f>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f>[1]PlanningCompetition!L18</f>
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <f>[1]PlanningCompetition!M18</f>
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f>[1]PlanningCompetition!N18</f>
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <f>[1]PlanningCompetition!O18</f>
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <f>[1]PlanningCompetition!P18</f>
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f>[1]PlanningCompetition!Q18</f>
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <f>[1]PlanningCompetition!R18</f>
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <f>[1]PlanningCompetition!S18</f>
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <f>[1]PlanningCompetition!T18</f>
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <f>[1]PlanningCompetition!U18</f>
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <f>[1]PlanningCompetition!V18</f>
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <f>[1]PlanningCompetition!W18</f>
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <f>[1]PlanningCompetition!X18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>[1]PlanningCompetition!A19</f>
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <f>[1]PlanningCompetition!B19</f>
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <f>[1]PlanningCompetition!C19</f>
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <f>[1]PlanningCompetition!D19</f>
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f>[1]PlanningCompetition!E19</f>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f>[1]PlanningCompetition!F19</f>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f>[1]PlanningCompetition!G19</f>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f>[1]PlanningCompetition!H19</f>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f>[1]PlanningCompetition!I19</f>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f>[1]PlanningCompetition!J19</f>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f>[1]PlanningCompetition!K19</f>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f>[1]PlanningCompetition!L19</f>
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <f>[1]PlanningCompetition!M19</f>
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f>[1]PlanningCompetition!N19</f>
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <f>[1]PlanningCompetition!O19</f>
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <f>[1]PlanningCompetition!P19</f>
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <f>[1]PlanningCompetition!Q19</f>
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <f>[1]PlanningCompetition!R19</f>
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <f>[1]PlanningCompetition!S19</f>
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <f>[1]PlanningCompetition!T19</f>
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <f>[1]PlanningCompetition!U19</f>
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <f>[1]PlanningCompetition!V19</f>
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <f>[1]PlanningCompetition!W19</f>
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <f>[1]PlanningCompetition!X19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f>[1]PlanningCompetition!A20</f>
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <f>[1]PlanningCompetition!B20</f>
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <f>[1]PlanningCompetition!C20</f>
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <f>[1]PlanningCompetition!D20</f>
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f>[1]PlanningCompetition!E20</f>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f>[1]PlanningCompetition!F20</f>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f>[1]PlanningCompetition!G20</f>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f>[1]PlanningCompetition!H20</f>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f>[1]PlanningCompetition!I20</f>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f>[1]PlanningCompetition!J20</f>
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <f>[1]PlanningCompetition!K20</f>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f>[1]PlanningCompetition!L20</f>
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <f>[1]PlanningCompetition!M20</f>
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <f>[1]PlanningCompetition!N20</f>
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <f>[1]PlanningCompetition!O20</f>
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <f>[1]PlanningCompetition!P20</f>
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <f>[1]PlanningCompetition!Q20</f>
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <f>[1]PlanningCompetition!R20</f>
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <f>[1]PlanningCompetition!S20</f>
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <f>[1]PlanningCompetition!T20</f>
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <f>[1]PlanningCompetition!U20</f>
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <f>[1]PlanningCompetition!V20</f>
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <f>[1]PlanningCompetition!W20</f>
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <f>[1]PlanningCompetition!X20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f>[1]PlanningCompetition!A21</f>
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <f>[1]PlanningCompetition!B21</f>
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <f>[1]PlanningCompetition!C21</f>
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <f>[1]PlanningCompetition!D21</f>
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f>[1]PlanningCompetition!E21</f>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f>[1]PlanningCompetition!F21</f>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f>[1]PlanningCompetition!G21</f>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f>[1]PlanningCompetition!H21</f>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f>[1]PlanningCompetition!I21</f>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f>[1]PlanningCompetition!J21</f>
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <f>[1]PlanningCompetition!K21</f>
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f>[1]PlanningCompetition!L21</f>
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <f>[1]PlanningCompetition!M21</f>
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <f>[1]PlanningCompetition!N21</f>
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <f>[1]PlanningCompetition!O21</f>
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <f>[1]PlanningCompetition!P21</f>
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <f>[1]PlanningCompetition!Q21</f>
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <f>[1]PlanningCompetition!R21</f>
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <f>[1]PlanningCompetition!S21</f>
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <f>[1]PlanningCompetition!T21</f>
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <f>[1]PlanningCompetition!U21</f>
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <f>[1]PlanningCompetition!V21</f>
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <f>[1]PlanningCompetition!W21</f>
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <f>[1]PlanningCompetition!X21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f>[1]PlanningCompetition!A22</f>
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <f>[1]PlanningCompetition!B22</f>
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <f>[1]PlanningCompetition!C22</f>
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <f>[1]PlanningCompetition!D22</f>
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f>[1]PlanningCompetition!E22</f>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f>[1]PlanningCompetition!F22</f>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f>[1]PlanningCompetition!G22</f>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f>[1]PlanningCompetition!H22</f>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f>[1]PlanningCompetition!I22</f>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f>[1]PlanningCompetition!J22</f>
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <f>[1]PlanningCompetition!K22</f>
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f>[1]PlanningCompetition!L22</f>
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <f>[1]PlanningCompetition!M22</f>
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <f>[1]PlanningCompetition!N22</f>
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <f>[1]PlanningCompetition!O22</f>
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <f>[1]PlanningCompetition!P22</f>
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <f>[1]PlanningCompetition!Q22</f>
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <f>[1]PlanningCompetition!R22</f>
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <f>[1]PlanningCompetition!S22</f>
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <f>[1]PlanningCompetition!T22</f>
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <f>[1]PlanningCompetition!U22</f>
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <f>[1]PlanningCompetition!V22</f>
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <f>[1]PlanningCompetition!W22</f>
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <f>[1]PlanningCompetition!X22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f>[1]PlanningCompetition!A23</f>
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <f>[1]PlanningCompetition!B23</f>
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <f>[1]PlanningCompetition!C23</f>
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <f>[1]PlanningCompetition!D23</f>
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <f>[1]PlanningCompetition!E23</f>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f>[1]PlanningCompetition!F23</f>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f>[1]PlanningCompetition!G23</f>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f>[1]PlanningCompetition!H23</f>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f>[1]PlanningCompetition!I23</f>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f>[1]PlanningCompetition!J23</f>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f>[1]PlanningCompetition!K23</f>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f>[1]PlanningCompetition!L23</f>
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <f>[1]PlanningCompetition!M23</f>
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <f>[1]PlanningCompetition!N23</f>
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <f>[1]PlanningCompetition!O23</f>
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <f>[1]PlanningCompetition!P23</f>
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <f>[1]PlanningCompetition!Q23</f>
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <f>[1]PlanningCompetition!R23</f>
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <f>[1]PlanningCompetition!S23</f>
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <f>[1]PlanningCompetition!T23</f>
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <f>[1]PlanningCompetition!U23</f>
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <f>[1]PlanningCompetition!V23</f>
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <f>[1]PlanningCompetition!W23</f>
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <f>[1]PlanningCompetition!X23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f>[1]PlanningCompetition!A24</f>
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <f>[1]PlanningCompetition!B24</f>
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <f>[1]PlanningCompetition!C24</f>
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <f>[1]PlanningCompetition!D24</f>
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f>[1]PlanningCompetition!E24</f>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f>[1]PlanningCompetition!F24</f>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f>[1]PlanningCompetition!G24</f>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f>[1]PlanningCompetition!H24</f>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f>[1]PlanningCompetition!I24</f>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f>[1]PlanningCompetition!J24</f>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f>[1]PlanningCompetition!K24</f>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f>[1]PlanningCompetition!L24</f>
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <f>[1]PlanningCompetition!M24</f>
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <f>[1]PlanningCompetition!N24</f>
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <f>[1]PlanningCompetition!O24</f>
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <f>[1]PlanningCompetition!P24</f>
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <f>[1]PlanningCompetition!Q24</f>
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <f>[1]PlanningCompetition!R24</f>
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <f>[1]PlanningCompetition!S24</f>
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <f>[1]PlanningCompetition!T24</f>
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <f>[1]PlanningCompetition!U24</f>
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <f>[1]PlanningCompetition!V24</f>
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <f>[1]PlanningCompetition!W24</f>
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <f>[1]PlanningCompetition!X24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f>[1]PlanningCompetition!A25</f>
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <f>[1]PlanningCompetition!B25</f>
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <f>[1]PlanningCompetition!C25</f>
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <f>[1]PlanningCompetition!D25</f>
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <f>[1]PlanningCompetition!E25</f>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f>[1]PlanningCompetition!F25</f>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f>[1]PlanningCompetition!G25</f>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f>[1]PlanningCompetition!H25</f>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f>[1]PlanningCompetition!I25</f>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <f>[1]PlanningCompetition!J25</f>
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <f>[1]PlanningCompetition!K25</f>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f>[1]PlanningCompetition!L25</f>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <f>[1]PlanningCompetition!M25</f>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <f>[1]PlanningCompetition!N25</f>
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <f>[1]PlanningCompetition!O25</f>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <f>[1]PlanningCompetition!P25</f>
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <f>[1]PlanningCompetition!Q25</f>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <f>[1]PlanningCompetition!R25</f>
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <f>[1]PlanningCompetition!S25</f>
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <f>[1]PlanningCompetition!T25</f>
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <f>[1]PlanningCompetition!U25</f>
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <f>[1]PlanningCompetition!V25</f>
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <f>[1]PlanningCompetition!W25</f>
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <f>[1]PlanningCompetition!X25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f>[1]PlanningCompetition!A26</f>
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <f>[1]PlanningCompetition!B26</f>
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <f>[1]PlanningCompetition!C26</f>
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <f>[1]PlanningCompetition!D26</f>
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <f>[1]PlanningCompetition!E26</f>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f>[1]PlanningCompetition!F26</f>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f>[1]PlanningCompetition!G26</f>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f>[1]PlanningCompetition!H26</f>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f>[1]PlanningCompetition!I26</f>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f>[1]PlanningCompetition!J26</f>
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <f>[1]PlanningCompetition!K26</f>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f>[1]PlanningCompetition!L26</f>
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <f>[1]PlanningCompetition!M26</f>
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <f>[1]PlanningCompetition!N26</f>
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <f>[1]PlanningCompetition!O26</f>
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <f>[1]PlanningCompetition!P26</f>
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <f>[1]PlanningCompetition!Q26</f>
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <f>[1]PlanningCompetition!R26</f>
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <f>[1]PlanningCompetition!S26</f>
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <f>[1]PlanningCompetition!T26</f>
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <f>[1]PlanningCompetition!U26</f>
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <f>[1]PlanningCompetition!V26</f>
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <f>[1]PlanningCompetition!W26</f>
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <f>[1]PlanningCompetition!X26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>[1]PlanningCompetition!A27</f>
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <f>[1]PlanningCompetition!B27</f>
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <f>[1]PlanningCompetition!C27</f>
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <f>[1]PlanningCompetition!D27</f>
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <f>[1]PlanningCompetition!E27</f>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f>[1]PlanningCompetition!F27</f>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f>[1]PlanningCompetition!G27</f>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f>[1]PlanningCompetition!H27</f>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f>[1]PlanningCompetition!I27</f>
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <f>[1]PlanningCompetition!J27</f>
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <f>[1]PlanningCompetition!K27</f>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f>[1]PlanningCompetition!L27</f>
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <f>[1]PlanningCompetition!M27</f>
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <f>[1]PlanningCompetition!N27</f>
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <f>[1]PlanningCompetition!O27</f>
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <f>[1]PlanningCompetition!P27</f>
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <f>[1]PlanningCompetition!Q27</f>
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <f>[1]PlanningCompetition!R27</f>
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <f>[1]PlanningCompetition!S27</f>
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <f>[1]PlanningCompetition!T27</f>
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <f>[1]PlanningCompetition!U27</f>
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <f>[1]PlanningCompetition!V27</f>
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <f>[1]PlanningCompetition!W27</f>
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <f>[1]PlanningCompetition!X27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f>[1]PlanningCompetition!A28</f>
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <f>[1]PlanningCompetition!B28</f>
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <f>[1]PlanningCompetition!C28</f>
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <f>[1]PlanningCompetition!D28</f>
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <f>[1]PlanningCompetition!E28</f>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f>[1]PlanningCompetition!F28</f>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f>[1]PlanningCompetition!G28</f>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f>[1]PlanningCompetition!H28</f>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f>[1]PlanningCompetition!I28</f>
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <f>[1]PlanningCompetition!J28</f>
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <f>[1]PlanningCompetition!K28</f>
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f>[1]PlanningCompetition!L28</f>
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <f>[1]PlanningCompetition!M28</f>
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <f>[1]PlanningCompetition!N28</f>
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <f>[1]PlanningCompetition!O28</f>
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <f>[1]PlanningCompetition!P28</f>
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <f>[1]PlanningCompetition!Q28</f>
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <f>[1]PlanningCompetition!R28</f>
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <f>[1]PlanningCompetition!S28</f>
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <f>[1]PlanningCompetition!T28</f>
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <f>[1]PlanningCompetition!U28</f>
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <f>[1]PlanningCompetition!V28</f>
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <f>[1]PlanningCompetition!W28</f>
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <f>[1]PlanningCompetition!X28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f>[1]PlanningCompetition!A29</f>
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <f>[1]PlanningCompetition!B29</f>
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <f>[1]PlanningCompetition!C29</f>
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <f>[1]PlanningCompetition!D29</f>
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <f>[1]PlanningCompetition!E29</f>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f>[1]PlanningCompetition!F29</f>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f>[1]PlanningCompetition!G29</f>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f>[1]PlanningCompetition!H29</f>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f>[1]PlanningCompetition!I29</f>
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <f>[1]PlanningCompetition!J29</f>
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <f>[1]PlanningCompetition!K29</f>
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <f>[1]PlanningCompetition!L29</f>
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <f>[1]PlanningCompetition!M29</f>
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <f>[1]PlanningCompetition!N29</f>
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <f>[1]PlanningCompetition!O29</f>
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <f>[1]PlanningCompetition!P29</f>
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <f>[1]PlanningCompetition!Q29</f>
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <f>[1]PlanningCompetition!R29</f>
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <f>[1]PlanningCompetition!S29</f>
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <f>[1]PlanningCompetition!T29</f>
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <f>[1]PlanningCompetition!U29</f>
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <f>[1]PlanningCompetition!V29</f>
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <f>[1]PlanningCompetition!W29</f>
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <f>[1]PlanningCompetition!X29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f>[1]PlanningCompetition!A30</f>
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <f>[1]PlanningCompetition!B30</f>
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <f>[1]PlanningCompetition!C30</f>
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <f>[1]PlanningCompetition!D30</f>
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <f>[1]PlanningCompetition!E30</f>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f>[1]PlanningCompetition!F30</f>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f>[1]PlanningCompetition!G30</f>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f>[1]PlanningCompetition!H30</f>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f>[1]PlanningCompetition!I30</f>
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <f>[1]PlanningCompetition!J30</f>
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <f>[1]PlanningCompetition!K30</f>
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <f>[1]PlanningCompetition!L30</f>
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <f>[1]PlanningCompetition!M30</f>
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <f>[1]PlanningCompetition!N30</f>
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <f>[1]PlanningCompetition!O30</f>
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <f>[1]PlanningCompetition!P30</f>
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <f>[1]PlanningCompetition!Q30</f>
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <f>[1]PlanningCompetition!R30</f>
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <f>[1]PlanningCompetition!S30</f>
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <f>[1]PlanningCompetition!T30</f>
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <f>[1]PlanningCompetition!U30</f>
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <f>[1]PlanningCompetition!V30</f>
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <f>[1]PlanningCompetition!W30</f>
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <f>[1]PlanningCompetition!X30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f>[1]PlanningCompetition!A31</f>
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <f>[1]PlanningCompetition!B31</f>
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <f>[1]PlanningCompetition!C31</f>
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <f>[1]PlanningCompetition!D31</f>
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <f>[1]PlanningCompetition!E31</f>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f>[1]PlanningCompetition!F31</f>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f>[1]PlanningCompetition!G31</f>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f>[1]PlanningCompetition!H31</f>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f>[1]PlanningCompetition!I31</f>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f>[1]PlanningCompetition!J31</f>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <f>[1]PlanningCompetition!K31</f>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f>[1]PlanningCompetition!L31</f>
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <f>[1]PlanningCompetition!M31</f>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f>[1]PlanningCompetition!N31</f>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f>[1]PlanningCompetition!O31</f>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f>[1]PlanningCompetition!P31</f>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f>[1]PlanningCompetition!Q31</f>
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <f>[1]PlanningCompetition!R31</f>
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <f>[1]PlanningCompetition!S31</f>
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <f>[1]PlanningCompetition!T31</f>
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <f>[1]PlanningCompetition!U31</f>
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <f>[1]PlanningCompetition!V31</f>
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <f>[1]PlanningCompetition!W31</f>
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <f>[1]PlanningCompetition!X31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f>[1]PlanningCompetition!A32</f>
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <f>[1]PlanningCompetition!B32</f>
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <f>[1]PlanningCompetition!C32</f>
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <f>[1]PlanningCompetition!D32</f>
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <f>[1]PlanningCompetition!E32</f>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f>[1]PlanningCompetition!F32</f>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f>[1]PlanningCompetition!G32</f>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f>[1]PlanningCompetition!H32</f>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f>[1]PlanningCompetition!I32</f>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <f>[1]PlanningCompetition!J32</f>
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <f>[1]PlanningCompetition!K32</f>
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <f>[1]PlanningCompetition!L32</f>
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <f>[1]PlanningCompetition!M32</f>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f>[1]PlanningCompetition!N32</f>
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f>[1]PlanningCompetition!O32</f>
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f>[1]PlanningCompetition!P32</f>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f>[1]PlanningCompetition!Q32</f>
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <f>[1]PlanningCompetition!R32</f>
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <f>[1]PlanningCompetition!S32</f>
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <f>[1]PlanningCompetition!T32</f>
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <f>[1]PlanningCompetition!U32</f>
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <f>[1]PlanningCompetition!V32</f>
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <f>[1]PlanningCompetition!W32</f>
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <f>[1]PlanningCompetition!X32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f>[1]PlanningCompetition!A33</f>
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <f>[1]PlanningCompetition!B33</f>
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <f>[1]PlanningCompetition!C33</f>
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <f>[1]PlanningCompetition!D33</f>
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <f>[1]PlanningCompetition!E33</f>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f>[1]PlanningCompetition!F33</f>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f>[1]PlanningCompetition!G33</f>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f>[1]PlanningCompetition!H33</f>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f>[1]PlanningCompetition!I33</f>
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <f>[1]PlanningCompetition!J33</f>
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <f>[1]PlanningCompetition!K33</f>
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <f>[1]PlanningCompetition!L33</f>
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <f>[1]PlanningCompetition!M33</f>
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <f>[1]PlanningCompetition!N33</f>
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <f>[1]PlanningCompetition!O33</f>
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <f>[1]PlanningCompetition!P33</f>
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f>[1]PlanningCompetition!Q33</f>
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <f>[1]PlanningCompetition!R33</f>
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <f>[1]PlanningCompetition!S33</f>
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <f>[1]PlanningCompetition!T33</f>
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <f>[1]PlanningCompetition!U33</f>
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <f>[1]PlanningCompetition!V33</f>
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <f>[1]PlanningCompetition!W33</f>
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <f>[1]PlanningCompetition!X33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f>[1]PlanningCompetition!A34</f>
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <f>[1]PlanningCompetition!B34</f>
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <f>[1]PlanningCompetition!C34</f>
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <f>[1]PlanningCompetition!D34</f>
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <f>[1]PlanningCompetition!E34</f>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f>[1]PlanningCompetition!F34</f>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f>[1]PlanningCompetition!G34</f>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f>[1]PlanningCompetition!H34</f>
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f>[1]PlanningCompetition!I34</f>
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <f>[1]PlanningCompetition!J34</f>
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <f>[1]PlanningCompetition!K34</f>
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <f>[1]PlanningCompetition!L34</f>
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <f>[1]PlanningCompetition!M34</f>
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f>[1]PlanningCompetition!N34</f>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f>[1]PlanningCompetition!O34</f>
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f>[1]PlanningCompetition!P34</f>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f>[1]PlanningCompetition!Q34</f>
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <f>[1]PlanningCompetition!R34</f>
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <f>[1]PlanningCompetition!S34</f>
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <f>[1]PlanningCompetition!T34</f>
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <f>[1]PlanningCompetition!U34</f>
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <f>[1]PlanningCompetition!V34</f>
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <f>[1]PlanningCompetition!W34</f>
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <f>[1]PlanningCompetition!X34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f>[1]PlanningCompetition!A35</f>
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <f>[1]PlanningCompetition!B35</f>
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <f>[1]PlanningCompetition!C35</f>
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <f>[1]PlanningCompetition!D35</f>
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <f>[1]PlanningCompetition!E35</f>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f>[1]PlanningCompetition!F35</f>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f>[1]PlanningCompetition!G35</f>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f>[1]PlanningCompetition!H35</f>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f>[1]PlanningCompetition!I35</f>
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <f>[1]PlanningCompetition!J35</f>
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <f>[1]PlanningCompetition!K35</f>
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f>[1]PlanningCompetition!L35</f>
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <f>[1]PlanningCompetition!M35</f>
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <f>[1]PlanningCompetition!N35</f>
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f>[1]PlanningCompetition!O35</f>
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <f>[1]PlanningCompetition!P35</f>
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <f>[1]PlanningCompetition!Q35</f>
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <f>[1]PlanningCompetition!R35</f>
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <f>[1]PlanningCompetition!S35</f>
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <f>[1]PlanningCompetition!T35</f>
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <f>[1]PlanningCompetition!U35</f>
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <f>[1]PlanningCompetition!V35</f>
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <f>[1]PlanningCompetition!W35</f>
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <f>[1]PlanningCompetition!X35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f>[1]PlanningCompetition!A36</f>
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <f>[1]PlanningCompetition!B36</f>
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <f>[1]PlanningCompetition!C36</f>
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <f>[1]PlanningCompetition!D36</f>
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <f>[1]PlanningCompetition!E36</f>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f>[1]PlanningCompetition!F36</f>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f>[1]PlanningCompetition!G36</f>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f>[1]PlanningCompetition!H36</f>
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f>[1]PlanningCompetition!I36</f>
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <f>[1]PlanningCompetition!J36</f>
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <f>[1]PlanningCompetition!K36</f>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f>[1]PlanningCompetition!L36</f>
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <f>[1]PlanningCompetition!M36</f>
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <f>[1]PlanningCompetition!N36</f>
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <f>[1]PlanningCompetition!O36</f>
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <f>[1]PlanningCompetition!P36</f>
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <f>[1]PlanningCompetition!Q36</f>
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <f>[1]PlanningCompetition!R36</f>
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <f>[1]PlanningCompetition!S36</f>
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <f>[1]PlanningCompetition!T36</f>
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <f>[1]PlanningCompetition!U36</f>
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <f>[1]PlanningCompetition!V36</f>
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <f>[1]PlanningCompetition!W36</f>
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <f>[1]PlanningCompetition!X36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f>[1]PlanningCompetition!A37</f>
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <f>[1]PlanningCompetition!B37</f>
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <f>[1]PlanningCompetition!C37</f>
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <f>[1]PlanningCompetition!D37</f>
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <f>[1]PlanningCompetition!E37</f>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f>[1]PlanningCompetition!F37</f>
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f>[1]PlanningCompetition!G37</f>
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f>[1]PlanningCompetition!H37</f>
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f>[1]PlanningCompetition!I37</f>
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <f>[1]PlanningCompetition!J37</f>
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <f>[1]PlanningCompetition!K37</f>
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <f>[1]PlanningCompetition!L37</f>
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <f>[1]PlanningCompetition!M37</f>
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <f>[1]PlanningCompetition!N37</f>
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <f>[1]PlanningCompetition!O37</f>
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <f>[1]PlanningCompetition!P37</f>
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <f>[1]PlanningCompetition!Q37</f>
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <f>[1]PlanningCompetition!R37</f>
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <f>[1]PlanningCompetition!S37</f>
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <f>[1]PlanningCompetition!T37</f>
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <f>[1]PlanningCompetition!U37</f>
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <f>[1]PlanningCompetition!V37</f>
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <f>[1]PlanningCompetition!W37</f>
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <f>[1]PlanningCompetition!X37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f>[1]PlanningCompetition!A38</f>
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <f>[1]PlanningCompetition!B38</f>
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <f>[1]PlanningCompetition!C38</f>
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <f>[1]PlanningCompetition!D38</f>
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <f>[1]PlanningCompetition!E38</f>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f>[1]PlanningCompetition!F38</f>
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f>[1]PlanningCompetition!G38</f>
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <f>[1]PlanningCompetition!H38</f>
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f>[1]PlanningCompetition!I38</f>
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <f>[1]PlanningCompetition!J38</f>
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <f>[1]PlanningCompetition!K38</f>
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <f>[1]PlanningCompetition!L38</f>
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <f>[1]PlanningCompetition!M38</f>
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <f>[1]PlanningCompetition!N38</f>
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <f>[1]PlanningCompetition!O38</f>
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <f>[1]PlanningCompetition!P38</f>
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <f>[1]PlanningCompetition!Q38</f>
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <f>[1]PlanningCompetition!R38</f>
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <f>[1]PlanningCompetition!S38</f>
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <f>[1]PlanningCompetition!T38</f>
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <f>[1]PlanningCompetition!U38</f>
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <f>[1]PlanningCompetition!V38</f>
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <f>[1]PlanningCompetition!W38</f>
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <f>[1]PlanningCompetition!X38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f>[1]PlanningCompetition!A39</f>
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <f>[1]PlanningCompetition!B39</f>
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <f>[1]PlanningCompetition!C39</f>
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <f>[1]PlanningCompetition!D39</f>
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <f>[1]PlanningCompetition!E39</f>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f>[1]PlanningCompetition!F39</f>
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <f>[1]PlanningCompetition!G39</f>
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <f>[1]PlanningCompetition!H39</f>
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f>[1]PlanningCompetition!I39</f>
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <f>[1]PlanningCompetition!J39</f>
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <f>[1]PlanningCompetition!K39</f>
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <f>[1]PlanningCompetition!L39</f>
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <f>[1]PlanningCompetition!M39</f>
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <f>[1]PlanningCompetition!N39</f>
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <f>[1]PlanningCompetition!O39</f>
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <f>[1]PlanningCompetition!P39</f>
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <f>[1]PlanningCompetition!Q39</f>
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <f>[1]PlanningCompetition!R39</f>
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <f>[1]PlanningCompetition!S39</f>
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <f>[1]PlanningCompetition!T39</f>
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <f>[1]PlanningCompetition!U39</f>
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <f>[1]PlanningCompetition!V39</f>
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <f>[1]PlanningCompetition!W39</f>
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <f>[1]PlanningCompetition!X39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f>[1]PlanningCompetition!A40</f>
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <f>[1]PlanningCompetition!B40</f>
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <f>[1]PlanningCompetition!C40</f>
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <f>[1]PlanningCompetition!D40</f>
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <f>[1]PlanningCompetition!E40</f>
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f>[1]PlanningCompetition!F40</f>
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <f>[1]PlanningCompetition!G40</f>
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <f>[1]PlanningCompetition!H40</f>
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <f>[1]PlanningCompetition!I40</f>
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <f>[1]PlanningCompetition!J40</f>
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <f>[1]PlanningCompetition!K40</f>
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <f>[1]PlanningCompetition!L40</f>
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <f>[1]PlanningCompetition!M40</f>
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <f>[1]PlanningCompetition!N40</f>
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <f>[1]PlanningCompetition!O40</f>
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <f>[1]PlanningCompetition!P40</f>
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <f>[1]PlanningCompetition!Q40</f>
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <f>[1]PlanningCompetition!R40</f>
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <f>[1]PlanningCompetition!S40</f>
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <f>[1]PlanningCompetition!T40</f>
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <f>[1]PlanningCompetition!U40</f>
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <f>[1]PlanningCompetition!V40</f>
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <f>[1]PlanningCompetition!W40</f>
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <f>[1]PlanningCompetition!X40</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -882,7 +4802,7 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -890,252 +4810,261 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="8" t="str">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="str">
         <f>Données!A2</f>
         <v>sta</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="2">
+      <c r="C2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="1">
         <f>E3-TIME(0,Données!D2,0)-TIME(0,Données!C2,0)</f>
         <v>0.40416666666666667</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="2">
         <f>Données!B2</f>
         <v>0.42708333333333331</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="4">
+      <c r="A4" s="8"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="3">
         <f>E3+TIME(0,(Données!E2*Données!F2),0)</f>
-        <v>0.46875</v>
+        <v>0.4770833333333333</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="5">
+      <c r="A5" s="8"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="4">
         <f>TIME(0,Données!G2,0)</f>
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="8" t="str">
+      <c r="A6" s="8"/>
+      <c r="B6" s="10" t="str">
         <f>Données!A3</f>
         <v>dwf</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="6">
+      <c r="C6" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="5">
         <f>E7-TIME(0,Données!D3,0)-TIME(0,Données!C3,0)</f>
-        <v>0.45277777777777778</v>
+        <v>0.46111111111111108</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="4">
+      <c r="A7" s="8"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="3">
         <f>E4+E5</f>
-        <v>0.47569444444444442</v>
+        <v>0.48402777777777772</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="4">
+      <c r="A8" s="8"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="3">
         <f>E7+TIME(0,(Données!E3*Données!F3),0)</f>
-        <v>0.53194444444444444</v>
+        <v>0.54027777777777775</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="5">
+      <c r="A9" s="8"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="4">
         <f>TIME(0,Données!G3,0)</f>
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="8" t="str">
+      <c r="A10" s="8"/>
+      <c r="B10" s="10" t="str">
         <f>Données!A4</f>
         <v>spd</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="2">
+      <c r="C10" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="1">
         <f>E11-TIME(0,Données!D4,0)-TIME(0,Données!C4,0)</f>
-        <v>0.51597222222222217</v>
+        <v>0.52430555555555547</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="4">
+      <c r="A11" s="8"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="3">
         <f>E8+E9</f>
-        <v>0.53888888888888886</v>
+        <v>0.54722222222222217</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="4">
+      <c r="A12" s="8"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="3">
         <f>E11+TIME(0,(Données!E4*Données!F4),0)</f>
-        <v>0.56319444444444444</v>
+        <v>0.57638888888888884</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="5">
+      <c r="A13" s="8"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="4">
         <f>TIME(0,Données!G4,0)</f>
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="8" t="str">
+      <c r="A14" s="8"/>
+      <c r="B14" s="10" t="str">
         <f>Données!A5</f>
         <v>dnf</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="6">
+      <c r="C14" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="5">
         <f>E15-TIME(0,Données!D5,0)-TIME(0,Données!C5,0)</f>
-        <v>0.54722222222222217</v>
+        <v>0.56041666666666656</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="4">
+      <c r="A15" s="8"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="3">
         <f>E12+E13</f>
-        <v>0.57013888888888886</v>
+        <v>0.58333333333333326</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="4">
+      <c r="A16" s="8"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="3">
         <f>E15+TIME(0,(Données!E5*Données!F5),0)</f>
-        <v>0.62638888888888888</v>
+        <v>0.63958333333333328</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="5">
+      <c r="A17" s="8"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="4">
         <f>TIME(0,Données!G5,0)</f>
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="20">
+      <c r="A18" s="8"/>
+      <c r="B18" s="19">
         <f>Données!A6</f>
         <v>1650</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="6">
+      <c r="C18" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="5">
         <f>E19-TIME(0,Données!D6,0)-TIME(0,Données!C6,0)</f>
-        <v>0.61041666666666661</v>
+        <v>0.62361111111111101</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="4">
+      <c r="A19" s="8"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="3">
         <f>E16+E17</f>
-        <v>0.6333333333333333</v>
+        <v>0.6465277777777777</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="7">
+      <c r="A20" s="9"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="6">
         <f>E19+TIME(0,(Données!E6*Données!F6),0)</f>
-        <v>0.69722222222222219</v>
+        <v>0.71041666666666659</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
     <mergeCell ref="A2:A20"/>
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="C14:D14"/>
@@ -1152,15 +5081,6 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/bin/export/HoraireCompetition.xlsx
+++ b/bin/export/HoraireCompetition.xlsx
@@ -39,6 +39,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="h:mm;@"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -341,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="20" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -353,15 +356,6 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -389,6 +383,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -398,6 +401,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -857,11 +861,12 @@
   <dimension ref="A1:X40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="11.42578125" style="22"/>
     <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -871,7 +876,7 @@
         <f>[1]PlanningCompetition!A1</f>
         <v>Id Epreuve</v>
       </c>
-      <c r="B1" t="str">
+      <c r="B1" s="22" t="str">
         <f>[1]PlanningCompetition!B1</f>
         <v xml:space="preserve"> HeureOuverture(1ereEpreuve)</v>
       </c>
@@ -969,7 +974,7 @@
         <f>[1]PlanningCompetition!A2</f>
         <v>sta</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="22">
         <f>[1]PlanningCompetition!B2</f>
         <v>0.42708333333333331</v>
       </c>
@@ -1067,7 +1072,7 @@
         <f>[1]PlanningCompetition!A3</f>
         <v>dwf</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="22">
         <f>[1]PlanningCompetition!B3</f>
         <v>0</v>
       </c>
@@ -1165,7 +1170,7 @@
         <f>[1]PlanningCompetition!A4</f>
         <v>spd</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="22">
         <f>[1]PlanningCompetition!B4</f>
         <v>0</v>
       </c>
@@ -1263,7 +1268,7 @@
         <f>[1]PlanningCompetition!A5</f>
         <v>dnf</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="22">
         <f>[1]PlanningCompetition!B5</f>
         <v>0</v>
       </c>
@@ -1361,7 +1366,7 @@
         <f>[1]PlanningCompetition!A6</f>
         <v>1650</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="22">
         <f>[1]PlanningCompetition!B6</f>
         <v>0</v>
       </c>
@@ -1459,7 +1464,7 @@
         <f>[1]PlanningCompetition!A7</f>
         <v>0</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="22">
         <f>[1]PlanningCompetition!B7</f>
         <v>0</v>
       </c>
@@ -1557,7 +1562,7 @@
         <f>[1]PlanningCompetition!A8</f>
         <v>0</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="22">
         <f>[1]PlanningCompetition!B8</f>
         <v>0</v>
       </c>
@@ -1655,7 +1660,7 @@
         <f>[1]PlanningCompetition!A9</f>
         <v>0</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="22">
         <f>[1]PlanningCompetition!B9</f>
         <v>0</v>
       </c>
@@ -1753,7 +1758,7 @@
         <f>[1]PlanningCompetition!A10</f>
         <v>0</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="22">
         <f>[1]PlanningCompetition!B10</f>
         <v>0</v>
       </c>
@@ -1851,7 +1856,7 @@
         <f>[1]PlanningCompetition!A11</f>
         <v>0</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="22">
         <f>[1]PlanningCompetition!B11</f>
         <v>0</v>
       </c>
@@ -1949,7 +1954,7 @@
         <f>[1]PlanningCompetition!A12</f>
         <v>0</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="22">
         <f>[1]PlanningCompetition!B12</f>
         <v>0</v>
       </c>
@@ -2047,7 +2052,7 @@
         <f>[1]PlanningCompetition!A13</f>
         <v>0</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="22">
         <f>[1]PlanningCompetition!B13</f>
         <v>0</v>
       </c>
@@ -2145,7 +2150,7 @@
         <f>[1]PlanningCompetition!A14</f>
         <v>0</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="22">
         <f>[1]PlanningCompetition!B14</f>
         <v>0</v>
       </c>
@@ -2243,7 +2248,7 @@
         <f>[1]PlanningCompetition!A15</f>
         <v>0</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="22">
         <f>[1]PlanningCompetition!B15</f>
         <v>0</v>
       </c>
@@ -2341,7 +2346,7 @@
         <f>[1]PlanningCompetition!A16</f>
         <v>0</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="22">
         <f>[1]PlanningCompetition!B16</f>
         <v>0</v>
       </c>
@@ -2439,7 +2444,7 @@
         <f>[1]PlanningCompetition!A17</f>
         <v>0</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="22">
         <f>[1]PlanningCompetition!B17</f>
         <v>0</v>
       </c>
@@ -2537,7 +2542,7 @@
         <f>[1]PlanningCompetition!A18</f>
         <v>0</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="22">
         <f>[1]PlanningCompetition!B18</f>
         <v>0</v>
       </c>
@@ -2635,7 +2640,7 @@
         <f>[1]PlanningCompetition!A19</f>
         <v>0</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="22">
         <f>[1]PlanningCompetition!B19</f>
         <v>0</v>
       </c>
@@ -2733,7 +2738,7 @@
         <f>[1]PlanningCompetition!A20</f>
         <v>0</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="22">
         <f>[1]PlanningCompetition!B20</f>
         <v>0</v>
       </c>
@@ -2831,7 +2836,7 @@
         <f>[1]PlanningCompetition!A21</f>
         <v>0</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="22">
         <f>[1]PlanningCompetition!B21</f>
         <v>0</v>
       </c>
@@ -2929,7 +2934,7 @@
         <f>[1]PlanningCompetition!A22</f>
         <v>0</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="22">
         <f>[1]PlanningCompetition!B22</f>
         <v>0</v>
       </c>
@@ -3027,7 +3032,7 @@
         <f>[1]PlanningCompetition!A23</f>
         <v>0</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="22">
         <f>[1]PlanningCompetition!B23</f>
         <v>0</v>
       </c>
@@ -3125,7 +3130,7 @@
         <f>[1]PlanningCompetition!A24</f>
         <v>0</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="22">
         <f>[1]PlanningCompetition!B24</f>
         <v>0</v>
       </c>
@@ -3223,7 +3228,7 @@
         <f>[1]PlanningCompetition!A25</f>
         <v>0</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="22">
         <f>[1]PlanningCompetition!B25</f>
         <v>0</v>
       </c>
@@ -3321,7 +3326,7 @@
         <f>[1]PlanningCompetition!A26</f>
         <v>0</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="22">
         <f>[1]PlanningCompetition!B26</f>
         <v>0</v>
       </c>
@@ -3419,7 +3424,7 @@
         <f>[1]PlanningCompetition!A27</f>
         <v>0</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="22">
         <f>[1]PlanningCompetition!B27</f>
         <v>0</v>
       </c>
@@ -3517,7 +3522,7 @@
         <f>[1]PlanningCompetition!A28</f>
         <v>0</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="22">
         <f>[1]PlanningCompetition!B28</f>
         <v>0</v>
       </c>
@@ -3615,7 +3620,7 @@
         <f>[1]PlanningCompetition!A29</f>
         <v>0</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="22">
         <f>[1]PlanningCompetition!B29</f>
         <v>0</v>
       </c>
@@ -3713,7 +3718,7 @@
         <f>[1]PlanningCompetition!A30</f>
         <v>0</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="22">
         <f>[1]PlanningCompetition!B30</f>
         <v>0</v>
       </c>
@@ -3811,7 +3816,7 @@
         <f>[1]PlanningCompetition!A31</f>
         <v>0</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="22">
         <f>[1]PlanningCompetition!B31</f>
         <v>0</v>
       </c>
@@ -3909,7 +3914,7 @@
         <f>[1]PlanningCompetition!A32</f>
         <v>0</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="22">
         <f>[1]PlanningCompetition!B32</f>
         <v>0</v>
       </c>
@@ -4007,7 +4012,7 @@
         <f>[1]PlanningCompetition!A33</f>
         <v>0</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="22">
         <f>[1]PlanningCompetition!B33</f>
         <v>0</v>
       </c>
@@ -4105,7 +4110,7 @@
         <f>[1]PlanningCompetition!A34</f>
         <v>0</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="22">
         <f>[1]PlanningCompetition!B34</f>
         <v>0</v>
       </c>
@@ -4203,7 +4208,7 @@
         <f>[1]PlanningCompetition!A35</f>
         <v>0</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="22">
         <f>[1]PlanningCompetition!B35</f>
         <v>0</v>
       </c>
@@ -4301,7 +4306,7 @@
         <f>[1]PlanningCompetition!A36</f>
         <v>0</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="22">
         <f>[1]PlanningCompetition!B36</f>
         <v>0</v>
       </c>
@@ -4399,7 +4404,7 @@
         <f>[1]PlanningCompetition!A37</f>
         <v>0</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="22">
         <f>[1]PlanningCompetition!B37</f>
         <v>0</v>
       </c>
@@ -4497,7 +4502,7 @@
         <f>[1]PlanningCompetition!A38</f>
         <v>0</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="22">
         <f>[1]PlanningCompetition!B38</f>
         <v>0</v>
       </c>
@@ -4595,7 +4600,7 @@
         <f>[1]PlanningCompetition!A39</f>
         <v>0</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="22">
         <f>[1]PlanningCompetition!B39</f>
         <v>0</v>
       </c>
@@ -4693,7 +4698,7 @@
         <f>[1]PlanningCompetition!A40</f>
         <v>0</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="22">
         <f>[1]PlanningCompetition!B40</f>
         <v>0</v>
       </c>
@@ -4810,245 +4815,245 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10" t="str">
+      <c r="A2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="str">
         <f>Données!A2</f>
         <v>sta</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14"/>
+      <c r="D2" s="11"/>
       <c r="E2" s="1">
         <f>E3-TIME(0,Données!D2,0)-TIME(0,Données!C2,0)</f>
         <v>0.40416666666666667</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="15" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="16"/>
+      <c r="D3" s="13"/>
       <c r="E3" s="2">
         <f>Données!B2</f>
         <v>0.42708333333333331</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="15" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="13"/>
       <c r="E4" s="3">
         <f>E3+TIME(0,(Données!E2*Données!F2),0)</f>
         <v>0.4770833333333333</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="17" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="18"/>
+      <c r="D5" s="15"/>
       <c r="E5" s="4">
         <f>TIME(0,Données!G2,0)</f>
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="10" t="str">
+      <c r="A6" s="17"/>
+      <c r="B6" s="7" t="str">
         <f>Données!A3</f>
         <v>dwf</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="5">
         <f>E7-TIME(0,Données!D3,0)-TIME(0,Données!C3,0)</f>
         <v>0.46111111111111108</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="15" t="s">
+      <c r="A7" s="17"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="16"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="3">
         <f>E4+E5</f>
         <v>0.48402777777777772</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="15" t="s">
+      <c r="A8" s="17"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="16"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="3">
         <f>E7+TIME(0,(Données!E3*Données!F3),0)</f>
         <v>0.54027777777777775</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="17" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="18"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="4">
         <f>TIME(0,Données!G3,0)</f>
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="10" t="str">
+      <c r="A10" s="17"/>
+      <c r="B10" s="7" t="str">
         <f>Données!A4</f>
         <v>spd</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="14"/>
+      <c r="D10" s="11"/>
       <c r="E10" s="1">
         <f>E11-TIME(0,Données!D4,0)-TIME(0,Données!C4,0)</f>
         <v>0.52430555555555547</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="15" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="16"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="3">
         <f>E8+E9</f>
         <v>0.54722222222222217</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="15" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="16"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="3">
         <f>E11+TIME(0,(Données!E4*Données!F4),0)</f>
         <v>0.57638888888888884</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="17" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="18"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="4">
         <f>TIME(0,Données!G4,0)</f>
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="10" t="str">
+      <c r="A14" s="17"/>
+      <c r="B14" s="7" t="str">
         <f>Données!A5</f>
         <v>dnf</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="14"/>
+      <c r="D14" s="11"/>
       <c r="E14" s="5">
         <f>E15-TIME(0,Données!D5,0)-TIME(0,Données!C5,0)</f>
         <v>0.56041666666666656</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="15" t="s">
+      <c r="A15" s="17"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="16"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="3">
         <f>E12+E13</f>
         <v>0.58333333333333326</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="15" t="s">
+      <c r="A16" s="17"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="16"/>
+      <c r="D16" s="13"/>
       <c r="E16" s="3">
         <f>E15+TIME(0,(Données!E5*Données!F5),0)</f>
         <v>0.63958333333333328</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="17" t="s">
+      <c r="A17" s="17"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="18"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="4">
         <f>TIME(0,Données!G5,0)</f>
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="19">
         <f>Données!A6</f>
         <v>1650</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="14"/>
+      <c r="D18" s="11"/>
       <c r="E18" s="5">
         <f>E19-TIME(0,Données!D6,0)-TIME(0,Données!C6,0)</f>
         <v>0.62361111111111101</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="20"/>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="16"/>
+      <c r="D19" s="13"/>
       <c r="E19" s="3">
         <f>E16+E17</f>
         <v>0.6465277777777777</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="21"/>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="18"/>
+      <c r="D20" s="15"/>
       <c r="E20" s="6">
         <f>E19+TIME(0,(Données!E6*Données!F6),0)</f>
         <v>0.71041666666666659</v>
@@ -5056,15 +5061,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
     <mergeCell ref="A2:A20"/>
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="C14:D14"/>
@@ -5081,6 +5077,15 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/bin/export/HoraireCompetition.xlsx
+++ b/bin/export/HoraireCompetition.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Données" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -356,6 +356,16 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -383,15 +393,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -401,7 +402,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,7 +478,7 @@
             <v>12</v>
           </cell>
           <cell r="F2">
-            <v>6</v>
+            <v>4</v>
           </cell>
           <cell r="G2">
             <v>10</v>
@@ -498,10 +498,10 @@
             <v>9</v>
           </cell>
           <cell r="F3">
-            <v>9</v>
+            <v>8</v>
           </cell>
           <cell r="G3">
-            <v>10</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="4">
@@ -518,10 +518,10 @@
             <v>7</v>
           </cell>
           <cell r="F4">
-            <v>6</v>
+            <v>4</v>
           </cell>
           <cell r="G4">
-            <v>10</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="5">
@@ -538,7 +538,7 @@
             <v>9</v>
           </cell>
           <cell r="F5">
-            <v>9</v>
+            <v>8</v>
           </cell>
           <cell r="G5">
             <v>10</v>
@@ -860,13 +860,13 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" style="22"/>
+    <col min="2" max="2" width="11.42578125" style="7"/>
     <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -876,7 +876,7 @@
         <f>[1]PlanningCompetition!A1</f>
         <v>Id Epreuve</v>
       </c>
-      <c r="B1" s="22" t="str">
+      <c r="B1" s="7" t="str">
         <f>[1]PlanningCompetition!B1</f>
         <v xml:space="preserve"> HeureOuverture(1ereEpreuve)</v>
       </c>
@@ -974,7 +974,7 @@
         <f>[1]PlanningCompetition!A2</f>
         <v>sta</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="7">
         <f>[1]PlanningCompetition!B2</f>
         <v>0.42708333333333331</v>
       </c>
@@ -992,7 +992,7 @@
       </c>
       <c r="F2">
         <f>[1]PlanningCompetition!F2</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <f>[1]PlanningCompetition!G2</f>
@@ -1072,7 +1072,7 @@
         <f>[1]PlanningCompetition!A3</f>
         <v>dwf</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="7">
         <f>[1]PlanningCompetition!B3</f>
         <v>0</v>
       </c>
@@ -1090,11 +1090,11 @@
       </c>
       <c r="F3">
         <f>[1]PlanningCompetition!F3</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3">
         <f>[1]PlanningCompetition!G3</f>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H3">
         <f>[1]PlanningCompetition!H3</f>
@@ -1170,7 +1170,7 @@
         <f>[1]PlanningCompetition!A4</f>
         <v>spd</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="7">
         <f>[1]PlanningCompetition!B4</f>
         <v>0</v>
       </c>
@@ -1188,11 +1188,11 @@
       </c>
       <c r="F4">
         <f>[1]PlanningCompetition!F4</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G4">
         <f>[1]PlanningCompetition!G4</f>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H4">
         <f>[1]PlanningCompetition!H4</f>
@@ -1268,7 +1268,7 @@
         <f>[1]PlanningCompetition!A5</f>
         <v>dnf</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="7">
         <f>[1]PlanningCompetition!B5</f>
         <v>0</v>
       </c>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="F5">
         <f>[1]PlanningCompetition!F5</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5">
         <f>[1]PlanningCompetition!G5</f>
@@ -1366,7 +1366,7 @@
         <f>[1]PlanningCompetition!A6</f>
         <v>1650</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="7">
         <f>[1]PlanningCompetition!B6</f>
         <v>0</v>
       </c>
@@ -1464,7 +1464,7 @@
         <f>[1]PlanningCompetition!A7</f>
         <v>0</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="7">
         <f>[1]PlanningCompetition!B7</f>
         <v>0</v>
       </c>
@@ -1562,7 +1562,7 @@
         <f>[1]PlanningCompetition!A8</f>
         <v>0</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="7">
         <f>[1]PlanningCompetition!B8</f>
         <v>0</v>
       </c>
@@ -1660,7 +1660,7 @@
         <f>[1]PlanningCompetition!A9</f>
         <v>0</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="7">
         <f>[1]PlanningCompetition!B9</f>
         <v>0</v>
       </c>
@@ -1758,7 +1758,7 @@
         <f>[1]PlanningCompetition!A10</f>
         <v>0</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="7">
         <f>[1]PlanningCompetition!B10</f>
         <v>0</v>
       </c>
@@ -1856,7 +1856,7 @@
         <f>[1]PlanningCompetition!A11</f>
         <v>0</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="7">
         <f>[1]PlanningCompetition!B11</f>
         <v>0</v>
       </c>
@@ -1954,7 +1954,7 @@
         <f>[1]PlanningCompetition!A12</f>
         <v>0</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="7">
         <f>[1]PlanningCompetition!B12</f>
         <v>0</v>
       </c>
@@ -2052,7 +2052,7 @@
         <f>[1]PlanningCompetition!A13</f>
         <v>0</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="7">
         <f>[1]PlanningCompetition!B13</f>
         <v>0</v>
       </c>
@@ -2150,7 +2150,7 @@
         <f>[1]PlanningCompetition!A14</f>
         <v>0</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="7">
         <f>[1]PlanningCompetition!B14</f>
         <v>0</v>
       </c>
@@ -2248,7 +2248,7 @@
         <f>[1]PlanningCompetition!A15</f>
         <v>0</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="7">
         <f>[1]PlanningCompetition!B15</f>
         <v>0</v>
       </c>
@@ -2346,7 +2346,7 @@
         <f>[1]PlanningCompetition!A16</f>
         <v>0</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="7">
         <f>[1]PlanningCompetition!B16</f>
         <v>0</v>
       </c>
@@ -2444,7 +2444,7 @@
         <f>[1]PlanningCompetition!A17</f>
         <v>0</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="7">
         <f>[1]PlanningCompetition!B17</f>
         <v>0</v>
       </c>
@@ -2542,7 +2542,7 @@
         <f>[1]PlanningCompetition!A18</f>
         <v>0</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="7">
         <f>[1]PlanningCompetition!B18</f>
         <v>0</v>
       </c>
@@ -2640,7 +2640,7 @@
         <f>[1]PlanningCompetition!A19</f>
         <v>0</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="7">
         <f>[1]PlanningCompetition!B19</f>
         <v>0</v>
       </c>
@@ -2738,7 +2738,7 @@
         <f>[1]PlanningCompetition!A20</f>
         <v>0</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B20" s="7">
         <f>[1]PlanningCompetition!B20</f>
         <v>0</v>
       </c>
@@ -2836,7 +2836,7 @@
         <f>[1]PlanningCompetition!A21</f>
         <v>0</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="7">
         <f>[1]PlanningCompetition!B21</f>
         <v>0</v>
       </c>
@@ -2934,7 +2934,7 @@
         <f>[1]PlanningCompetition!A22</f>
         <v>0</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22" s="7">
         <f>[1]PlanningCompetition!B22</f>
         <v>0</v>
       </c>
@@ -3032,7 +3032,7 @@
         <f>[1]PlanningCompetition!A23</f>
         <v>0</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23" s="7">
         <f>[1]PlanningCompetition!B23</f>
         <v>0</v>
       </c>
@@ -3130,7 +3130,7 @@
         <f>[1]PlanningCompetition!A24</f>
         <v>0</v>
       </c>
-      <c r="B24" s="22">
+      <c r="B24" s="7">
         <f>[1]PlanningCompetition!B24</f>
         <v>0</v>
       </c>
@@ -3228,7 +3228,7 @@
         <f>[1]PlanningCompetition!A25</f>
         <v>0</v>
       </c>
-      <c r="B25" s="22">
+      <c r="B25" s="7">
         <f>[1]PlanningCompetition!B25</f>
         <v>0</v>
       </c>
@@ -3326,7 +3326,7 @@
         <f>[1]PlanningCompetition!A26</f>
         <v>0</v>
       </c>
-      <c r="B26" s="22">
+      <c r="B26" s="7">
         <f>[1]PlanningCompetition!B26</f>
         <v>0</v>
       </c>
@@ -3424,7 +3424,7 @@
         <f>[1]PlanningCompetition!A27</f>
         <v>0</v>
       </c>
-      <c r="B27" s="22">
+      <c r="B27" s="7">
         <f>[1]PlanningCompetition!B27</f>
         <v>0</v>
       </c>
@@ -3522,7 +3522,7 @@
         <f>[1]PlanningCompetition!A28</f>
         <v>0</v>
       </c>
-      <c r="B28" s="22">
+      <c r="B28" s="7">
         <f>[1]PlanningCompetition!B28</f>
         <v>0</v>
       </c>
@@ -3620,7 +3620,7 @@
         <f>[1]PlanningCompetition!A29</f>
         <v>0</v>
       </c>
-      <c r="B29" s="22">
+      <c r="B29" s="7">
         <f>[1]PlanningCompetition!B29</f>
         <v>0</v>
       </c>
@@ -3718,7 +3718,7 @@
         <f>[1]PlanningCompetition!A30</f>
         <v>0</v>
       </c>
-      <c r="B30" s="22">
+      <c r="B30" s="7">
         <f>[1]PlanningCompetition!B30</f>
         <v>0</v>
       </c>
@@ -3816,7 +3816,7 @@
         <f>[1]PlanningCompetition!A31</f>
         <v>0</v>
       </c>
-      <c r="B31" s="22">
+      <c r="B31" s="7">
         <f>[1]PlanningCompetition!B31</f>
         <v>0</v>
       </c>
@@ -3914,7 +3914,7 @@
         <f>[1]PlanningCompetition!A32</f>
         <v>0</v>
       </c>
-      <c r="B32" s="22">
+      <c r="B32" s="7">
         <f>[1]PlanningCompetition!B32</f>
         <v>0</v>
       </c>
@@ -4012,7 +4012,7 @@
         <f>[1]PlanningCompetition!A33</f>
         <v>0</v>
       </c>
-      <c r="B33" s="22">
+      <c r="B33" s="7">
         <f>[1]PlanningCompetition!B33</f>
         <v>0</v>
       </c>
@@ -4110,7 +4110,7 @@
         <f>[1]PlanningCompetition!A34</f>
         <v>0</v>
       </c>
-      <c r="B34" s="22">
+      <c r="B34" s="7">
         <f>[1]PlanningCompetition!B34</f>
         <v>0</v>
       </c>
@@ -4208,7 +4208,7 @@
         <f>[1]PlanningCompetition!A35</f>
         <v>0</v>
       </c>
-      <c r="B35" s="22">
+      <c r="B35" s="7">
         <f>[1]PlanningCompetition!B35</f>
         <v>0</v>
       </c>
@@ -4306,7 +4306,7 @@
         <f>[1]PlanningCompetition!A36</f>
         <v>0</v>
       </c>
-      <c r="B36" s="22">
+      <c r="B36" s="7">
         <f>[1]PlanningCompetition!B36</f>
         <v>0</v>
       </c>
@@ -4404,7 +4404,7 @@
         <f>[1]PlanningCompetition!A37</f>
         <v>0</v>
       </c>
-      <c r="B37" s="22">
+      <c r="B37" s="7">
         <f>[1]PlanningCompetition!B37</f>
         <v>0</v>
       </c>
@@ -4502,7 +4502,7 @@
         <f>[1]PlanningCompetition!A38</f>
         <v>0</v>
       </c>
-      <c r="B38" s="22">
+      <c r="B38" s="7">
         <f>[1]PlanningCompetition!B38</f>
         <v>0</v>
       </c>
@@ -4600,7 +4600,7 @@
         <f>[1]PlanningCompetition!A39</f>
         <v>0</v>
       </c>
-      <c r="B39" s="22">
+      <c r="B39" s="7">
         <f>[1]PlanningCompetition!B39</f>
         <v>0</v>
       </c>
@@ -4698,7 +4698,7 @@
         <f>[1]PlanningCompetition!A40</f>
         <v>0</v>
       </c>
-      <c r="B40" s="22">
+      <c r="B40" s="7">
         <f>[1]PlanningCompetition!B40</f>
         <v>0</v>
       </c>
@@ -4807,260 +4807,269 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7" t="str">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="str">
         <f>Données!A2</f>
         <v>sta</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11"/>
+      <c r="D2" s="15"/>
       <c r="E2" s="1">
         <f>E3-TIME(0,Données!D2,0)-TIME(0,Données!C2,0)</f>
         <v>0.40416666666666667</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="12" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="13"/>
+      <c r="D3" s="17"/>
       <c r="E3" s="2">
         <f>Données!B2</f>
         <v>0.42708333333333331</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="12" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="3">
         <f>E3+TIME(0,(Données!E2*Données!F2),0)</f>
-        <v>0.4770833333333333</v>
+        <v>0.46041666666666664</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="14" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="19"/>
       <c r="E5" s="4">
         <f>TIME(0,Données!G2,0)</f>
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="7" t="str">
+      <c r="A6" s="9"/>
+      <c r="B6" s="11" t="str">
         <f>Données!A3</f>
         <v>dwf</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="15"/>
       <c r="E6" s="5">
         <f>E7-TIME(0,Données!D3,0)-TIME(0,Données!C3,0)</f>
-        <v>0.46111111111111108</v>
+        <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="12" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="13"/>
+      <c r="D7" s="17"/>
       <c r="E7" s="3">
         <f>E4+E5</f>
-        <v>0.48402777777777772</v>
+        <v>0.46736111111111106</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="12" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="17"/>
       <c r="E8" s="3">
         <f>E7+TIME(0,(Données!E3*Données!F3),0)</f>
-        <v>0.54027777777777775</v>
+        <v>0.51736111111111105</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="14" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="15"/>
+      <c r="D9" s="19"/>
       <c r="E9" s="4">
         <f>TIME(0,Données!G3,0)</f>
-        <v>6.9444444444444441E-3</v>
+        <v>1.7361111111111112E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="7" t="str">
+      <c r="A10" s="9"/>
+      <c r="B10" s="11" t="str">
         <f>Données!A4</f>
         <v>spd</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="1">
         <f>E11-TIME(0,Données!D4,0)-TIME(0,Données!C4,0)</f>
-        <v>0.52430555555555547</v>
+        <v>0.51180555555555551</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="12" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="13"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="3">
         <f>E8+E9</f>
-        <v>0.54722222222222217</v>
+        <v>0.53472222222222221</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="12" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="13"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="3">
         <f>E11+TIME(0,(Données!E4*Données!F4),0)</f>
-        <v>0.57638888888888884</v>
+        <v>0.5541666666666667</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="14" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="19"/>
       <c r="E13" s="4">
         <f>TIME(0,Données!G4,0)</f>
-        <v>6.9444444444444441E-3</v>
+        <v>1.7361111111111112E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="7" t="str">
+      <c r="A14" s="9"/>
+      <c r="B14" s="11" t="str">
         <f>Données!A5</f>
         <v>dnf</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="11"/>
+      <c r="D14" s="15"/>
       <c r="E14" s="5">
         <f>E15-TIME(0,Données!D5,0)-TIME(0,Données!C5,0)</f>
-        <v>0.56041666666666656</v>
+        <v>0.54861111111111116</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="12" t="s">
+      <c r="A15" s="9"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="13"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="3">
         <f>E12+E13</f>
-        <v>0.58333333333333326</v>
+        <v>0.57152777777777786</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="12" t="s">
+      <c r="A16" s="9"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="13"/>
+      <c r="D16" s="17"/>
       <c r="E16" s="3">
         <f>E15+TIME(0,(Données!E5*Données!F5),0)</f>
-        <v>0.63958333333333328</v>
+        <v>0.6215277777777779</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="14" t="s">
+      <c r="A17" s="9"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="15"/>
+      <c r="D17" s="19"/>
       <c r="E17" s="4">
         <f>TIME(0,Données!G5,0)</f>
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="19">
+      <c r="A18" s="9"/>
+      <c r="B18" s="20">
         <f>Données!A6</f>
         <v>1650</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="11"/>
+      <c r="D18" s="15"/>
       <c r="E18" s="5">
         <f>E19-TIME(0,Données!D6,0)-TIME(0,Données!C6,0)</f>
-        <v>0.62361111111111101</v>
+        <v>0.60555555555555562</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="12" t="s">
+      <c r="A19" s="9"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="13"/>
+      <c r="D19" s="17"/>
       <c r="E19" s="3">
         <f>E16+E17</f>
-        <v>0.6465277777777777</v>
+        <v>0.62847222222222232</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="18"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="14" t="s">
+      <c r="A20" s="10"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="15"/>
+      <c r="D20" s="19"/>
       <c r="E20" s="6">
         <f>E19+TIME(0,(Données!E6*Données!F6),0)</f>
-        <v>0.71041666666666659</v>
+        <v>0.6923611111111112</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
     <mergeCell ref="A2:A20"/>
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="C14:D14"/>
@@ -5077,15 +5086,6 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/bin/export/HoraireCompetition.xlsx
+++ b/bin/export/HoraireCompetition.xlsx
@@ -20,9 +20,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="5">
   <si>
-    <t>Déroulement des EPREUVE</t>
-  </si>
-  <si>
     <t>Ouverture Echauffement</t>
   </si>
   <si>
@@ -33,6 +30,9 @@
   </si>
   <si>
     <t>Battement</t>
+  </si>
+  <si>
+    <t>Déroulement des EPREUVES</t>
   </si>
 </sst>
 </file>
@@ -498,7 +498,7 @@
             <v>9</v>
           </cell>
           <cell r="F3">
-            <v>8</v>
+            <v>9</v>
           </cell>
           <cell r="G3">
             <v>25</v>
@@ -518,7 +518,7 @@
             <v>7</v>
           </cell>
           <cell r="F4">
-            <v>4</v>
+            <v>5</v>
           </cell>
           <cell r="G4">
             <v>25</v>
@@ -538,7 +538,7 @@
             <v>9</v>
           </cell>
           <cell r="F5">
-            <v>8</v>
+            <v>9</v>
           </cell>
           <cell r="G5">
             <v>10</v>
@@ -861,7 +861,7 @@
   <dimension ref="A1:X40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="F3">
         <f>[1]PlanningCompetition!F3</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3">
         <f>[1]PlanningCompetition!G3</f>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="F4">
         <f>[1]PlanningCompetition!F4</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4">
         <f>[1]PlanningCompetition!G4</f>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="F5">
         <f>[1]PlanningCompetition!F5</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G5">
         <f>[1]PlanningCompetition!G5</f>
@@ -4808,22 +4808,25 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A2" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" s="11" t="str">
         <f>Données!A2</f>
         <v>sta</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="1">
@@ -4835,7 +4838,7 @@
       <c r="A3" s="9"/>
       <c r="B3" s="12"/>
       <c r="C3" s="16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="2">
@@ -4847,7 +4850,7 @@
       <c r="A4" s="9"/>
       <c r="B4" s="12"/>
       <c r="C4" s="16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="3">
@@ -4859,7 +4862,7 @@
       <c r="A5" s="9"/>
       <c r="B5" s="13"/>
       <c r="C5" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="4">
@@ -4874,7 +4877,7 @@
         <v>dwf</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="5">
@@ -4886,7 +4889,7 @@
       <c r="A7" s="9"/>
       <c r="B7" s="12"/>
       <c r="C7" s="16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="3">
@@ -4898,19 +4901,19 @@
       <c r="A8" s="9"/>
       <c r="B8" s="12"/>
       <c r="C8" s="16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="3">
         <f>E7+TIME(0,(Données!E3*Données!F3),0)</f>
-        <v>0.51736111111111105</v>
+        <v>0.52361111111111103</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="13"/>
       <c r="C9" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="4">
@@ -4925,43 +4928,43 @@
         <v>spd</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="1">
         <f>E11-TIME(0,Données!D4,0)-TIME(0,Données!C4,0)</f>
-        <v>0.51180555555555551</v>
+        <v>0.51805555555555549</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="12"/>
       <c r="C11" s="16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="3">
         <f>E8+E9</f>
-        <v>0.53472222222222221</v>
+        <v>0.54097222222222219</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="12"/>
       <c r="C12" s="16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="3">
         <f>E11+TIME(0,(Données!E4*Données!F4),0)</f>
-        <v>0.5541666666666667</v>
+        <v>0.56527777777777777</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="13"/>
       <c r="C13" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="4">
@@ -4976,43 +4979,43 @@
         <v>dnf</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="5">
         <f>E15-TIME(0,Données!D5,0)-TIME(0,Données!C5,0)</f>
-        <v>0.54861111111111116</v>
+        <v>0.55972222222222223</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="12"/>
       <c r="C15" s="16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="3">
         <f>E12+E13</f>
-        <v>0.57152777777777786</v>
+        <v>0.58263888888888893</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="12"/>
       <c r="C16" s="16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="3">
         <f>E15+TIME(0,(Données!E5*Données!F5),0)</f>
-        <v>0.6215277777777779</v>
+        <v>0.63888888888888895</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="13"/>
       <c r="C17" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="4">
@@ -5027,36 +5030,36 @@
         <v>1650</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="5">
         <f>E19-TIME(0,Données!D6,0)-TIME(0,Données!C6,0)</f>
-        <v>0.60555555555555562</v>
+        <v>0.62291666666666667</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="21"/>
       <c r="C19" s="16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="3">
         <f>E16+E17</f>
-        <v>0.62847222222222232</v>
+        <v>0.64583333333333337</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="22"/>
       <c r="C20" s="18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="6">
         <f>E19+TIME(0,(Données!E6*Données!F6),0)</f>
-        <v>0.6923611111111112</v>
+        <v>0.70972222222222225</v>
       </c>
     </row>
   </sheetData>

--- a/bin/export/HoraireCompetition.xlsx
+++ b/bin/export/HoraireCompetition.xlsx
@@ -481,7 +481,7 @@
             <v>4</v>
           </cell>
           <cell r="G2">
-            <v>10</v>
+            <v>17</v>
           </cell>
         </row>
         <row r="3">
@@ -501,7 +501,7 @@
             <v>9</v>
           </cell>
           <cell r="G3">
-            <v>25</v>
+            <v>29</v>
           </cell>
         </row>
         <row r="4">
@@ -541,7 +541,7 @@
             <v>9</v>
           </cell>
           <cell r="G5">
-            <v>10</v>
+            <v>14</v>
           </cell>
         </row>
         <row r="6">
@@ -996,7 +996,7 @@
       </c>
       <c r="G2">
         <f>[1]PlanningCompetition!G2</f>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <f>[1]PlanningCompetition!H2</f>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="G3">
         <f>[1]PlanningCompetition!G3</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H3">
         <f>[1]PlanningCompetition!H3</f>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="G5">
         <f>[1]PlanningCompetition!G5</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H5">
         <f>[1]PlanningCompetition!H5</f>
@@ -4808,7 +4808,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A20"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4867,7 +4867,7 @@
       <c r="D5" s="19"/>
       <c r="E5" s="4">
         <f>TIME(0,Données!G2,0)</f>
-        <v>6.9444444444444441E-3</v>
+        <v>1.1805555555555555E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4882,7 +4882,7 @@
       <c r="D6" s="15"/>
       <c r="E6" s="5">
         <f>E7-TIME(0,Données!D3,0)-TIME(0,Données!C3,0)</f>
-        <v>0.44444444444444442</v>
+        <v>0.44930555555555557</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4894,7 +4894,7 @@
       <c r="D7" s="17"/>
       <c r="E7" s="3">
         <f>E4+E5</f>
-        <v>0.46736111111111106</v>
+        <v>0.47222222222222221</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4906,7 +4906,7 @@
       <c r="D8" s="17"/>
       <c r="E8" s="3">
         <f>E7+TIME(0,(Données!E3*Données!F3),0)</f>
-        <v>0.52361111111111103</v>
+        <v>0.52847222222222223</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4918,7 +4918,7 @@
       <c r="D9" s="19"/>
       <c r="E9" s="4">
         <f>TIME(0,Données!G3,0)</f>
-        <v>1.7361111111111112E-2</v>
+        <v>2.013888888888889E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4933,7 +4933,7 @@
       <c r="D10" s="15"/>
       <c r="E10" s="1">
         <f>E11-TIME(0,Données!D4,0)-TIME(0,Données!C4,0)</f>
-        <v>0.51805555555555549</v>
+        <v>0.52569444444444446</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4945,7 +4945,7 @@
       <c r="D11" s="17"/>
       <c r="E11" s="3">
         <f>E8+E9</f>
-        <v>0.54097222222222219</v>
+        <v>0.54861111111111116</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4957,7 +4957,7 @@
       <c r="D12" s="17"/>
       <c r="E12" s="3">
         <f>E11+TIME(0,(Données!E4*Données!F4),0)</f>
-        <v>0.56527777777777777</v>
+        <v>0.57291666666666674</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4984,7 +4984,7 @@
       <c r="D14" s="15"/>
       <c r="E14" s="5">
         <f>E15-TIME(0,Données!D5,0)-TIME(0,Données!C5,0)</f>
-        <v>0.55972222222222223</v>
+        <v>0.5673611111111112</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4996,7 +4996,7 @@
       <c r="D15" s="17"/>
       <c r="E15" s="3">
         <f>E12+E13</f>
-        <v>0.58263888888888893</v>
+        <v>0.5902777777777779</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5008,7 +5008,7 @@
       <c r="D16" s="17"/>
       <c r="E16" s="3">
         <f>E15+TIME(0,(Données!E5*Données!F5),0)</f>
-        <v>0.63888888888888895</v>
+        <v>0.64652777777777792</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5020,7 +5020,7 @@
       <c r="D17" s="19"/>
       <c r="E17" s="4">
         <f>TIME(0,Données!G5,0)</f>
-        <v>6.9444444444444441E-3</v>
+        <v>9.7222222222222224E-3</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5035,7 +5035,7 @@
       <c r="D18" s="15"/>
       <c r="E18" s="5">
         <f>E19-TIME(0,Données!D6,0)-TIME(0,Données!C6,0)</f>
-        <v>0.62291666666666667</v>
+        <v>0.63333333333333341</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5047,7 +5047,7 @@
       <c r="D19" s="17"/>
       <c r="E19" s="3">
         <f>E16+E17</f>
-        <v>0.64583333333333337</v>
+        <v>0.65625000000000011</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5059,7 +5059,7 @@
       <c r="D20" s="19"/>
       <c r="E20" s="6">
         <f>E19+TIME(0,(Données!E6*Données!F6),0)</f>
-        <v>0.70972222222222225</v>
+        <v>0.72013888888888899</v>
       </c>
     </row>
   </sheetData>
@@ -5091,6 +5091,6 @@
     <mergeCell ref="C13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>